--- a/tai_lieu/BangPhanCong.xlsx
+++ b/tai_lieu/BangPhanCong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="9255" windowHeight="7875"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng phân công" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>[Project Name] Web TOEIC</t>
   </si>
@@ -158,15 +158,6 @@
     <t>Vẽ sequencediagram</t>
   </si>
   <si>
-    <t>Chi tiết màn hình</t>
-  </si>
-  <si>
-    <t>Màn hình các trang admin</t>
-  </si>
-  <si>
-    <t>Màn hình các trang người dùng</t>
-  </si>
-  <si>
     <t>Thu thập dữ liệu</t>
   </si>
   <si>
@@ -185,6 +176,9 @@
     <t>Chức năng đang nhập , đăng ký</t>
   </si>
   <si>
+    <t>Mô tả màn hình đăng nhập, đăng ký</t>
+  </si>
+  <si>
     <t>Luyện bài đọc</t>
   </si>
   <si>
@@ -198,6 +192,9 @@
   </si>
   <si>
     <t>Thông tin cá nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô tả màn hình </t>
   </si>
   <si>
     <t>Quản lý tài khoản</t>
@@ -683,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -858,9 +855,6 @@
     <xf numFmtId="9" fontId="15" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="17" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -897,9 +891,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -916,19 +907,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,11 +1396,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DD1031"/>
+  <dimension ref="A1:DD1030"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1421,8 +1409,7 @@
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="7.140625" customWidth="1"/>
@@ -1443,27 +1430,27 @@
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
@@ -1769,11 +1756,11 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C4" s="141">
         <v>44634</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
         <v>3</v>
@@ -1783,296 +1770,296 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="138" t="str">
+      <c r="K4" s="135" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="138" t="str">
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="135" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138" t="str">
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="138" t="str">
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="135" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="139"/>
-      <c r="AH4" s="139"/>
-      <c r="AI4" s="139"/>
-      <c r="AJ4" s="139"/>
-      <c r="AK4" s="139"/>
-      <c r="AL4" s="140"/>
-      <c r="AM4" s="138" t="str">
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="135" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="139"/>
-      <c r="AO4" s="139"/>
-      <c r="AP4" s="139"/>
-      <c r="AQ4" s="139"/>
-      <c r="AR4" s="139"/>
-      <c r="AS4" s="140"/>
-      <c r="AT4" s="138" t="str">
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="135" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="139"/>
-      <c r="AV4" s="139"/>
-      <c r="AW4" s="139"/>
-      <c r="AX4" s="139"/>
-      <c r="AY4" s="139"/>
-      <c r="AZ4" s="140"/>
-      <c r="BA4" s="138" t="str">
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="135" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="139"/>
-      <c r="BC4" s="139"/>
-      <c r="BD4" s="139"/>
-      <c r="BE4" s="139"/>
-      <c r="BF4" s="139"/>
-      <c r="BG4" s="140"/>
-      <c r="BH4" s="138" t="str">
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="135" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="139"/>
-      <c r="BJ4" s="139"/>
-      <c r="BK4" s="139"/>
-      <c r="BL4" s="139"/>
-      <c r="BM4" s="139"/>
-      <c r="BN4" s="140"/>
-      <c r="BO4" s="138" t="str">
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="135" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP4" s="139"/>
-      <c r="BQ4" s="139"/>
-      <c r="BR4" s="139"/>
-      <c r="BS4" s="139"/>
-      <c r="BT4" s="139"/>
-      <c r="BU4" s="140"/>
-      <c r="BV4" s="138" t="str">
+      <c r="BP4" s="136"/>
+      <c r="BQ4" s="136"/>
+      <c r="BR4" s="136"/>
+      <c r="BS4" s="136"/>
+      <c r="BT4" s="136"/>
+      <c r="BU4" s="137"/>
+      <c r="BV4" s="135" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW4" s="139"/>
-      <c r="BX4" s="139"/>
-      <c r="BY4" s="139"/>
-      <c r="BZ4" s="139"/>
-      <c r="CA4" s="139"/>
-      <c r="CB4" s="140"/>
-      <c r="CC4" s="138" t="str">
+      <c r="BW4" s="136"/>
+      <c r="BX4" s="136"/>
+      <c r="BY4" s="136"/>
+      <c r="BZ4" s="136"/>
+      <c r="CA4" s="136"/>
+      <c r="CB4" s="137"/>
+      <c r="CC4" s="135" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD4" s="139"/>
-      <c r="CE4" s="139"/>
-      <c r="CF4" s="139"/>
-      <c r="CG4" s="139"/>
-      <c r="CH4" s="139"/>
-      <c r="CI4" s="140"/>
-      <c r="CJ4" s="138" t="str">
+      <c r="CD4" s="136"/>
+      <c r="CE4" s="136"/>
+      <c r="CF4" s="136"/>
+      <c r="CG4" s="136"/>
+      <c r="CH4" s="136"/>
+      <c r="CI4" s="137"/>
+      <c r="CJ4" s="135" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK4" s="139"/>
-      <c r="CL4" s="139"/>
-      <c r="CM4" s="139"/>
-      <c r="CN4" s="139"/>
-      <c r="CO4" s="139"/>
-      <c r="CP4" s="140"/>
-      <c r="CQ4" s="138" t="str">
+      <c r="CK4" s="136"/>
+      <c r="CL4" s="136"/>
+      <c r="CM4" s="136"/>
+      <c r="CN4" s="136"/>
+      <c r="CO4" s="136"/>
+      <c r="CP4" s="137"/>
+      <c r="CQ4" s="135" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR4" s="139"/>
-      <c r="CS4" s="139"/>
-      <c r="CT4" s="139"/>
-      <c r="CU4" s="139"/>
-      <c r="CV4" s="139"/>
-      <c r="CW4" s="140"/>
-      <c r="CX4" s="141"/>
-      <c r="CY4" s="139"/>
-      <c r="CZ4" s="139"/>
-      <c r="DA4" s="139"/>
-      <c r="DB4" s="139"/>
-      <c r="DC4" s="139"/>
-      <c r="DD4" s="139"/>
+      <c r="CR4" s="136"/>
+      <c r="CS4" s="136"/>
+      <c r="CT4" s="136"/>
+      <c r="CU4" s="136"/>
+      <c r="CV4" s="136"/>
+      <c r="CW4" s="137"/>
+      <c r="CX4" s="138"/>
+      <c r="CY4" s="136"/>
+      <c r="CZ4" s="136"/>
+      <c r="DA4" s="136"/>
+      <c r="DB4" s="136"/>
+      <c r="DC4" s="136"/>
+      <c r="DD4" s="136"/>
     </row>
     <row r="5" spans="1:108" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="142">
+      <c r="K5" s="139">
         <f>K6</f>
         <v>44634</v>
       </c>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="142">
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="139">
         <f>R6</f>
         <v>44641</v>
       </c>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="142">
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="139">
         <f>Y6</f>
         <v>44648</v>
       </c>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="140"/>
-      <c r="AF5" s="142">
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="139">
         <f>AF6</f>
         <v>44655</v>
       </c>
-      <c r="AG5" s="139"/>
-      <c r="AH5" s="139"/>
-      <c r="AI5" s="139"/>
-      <c r="AJ5" s="139"/>
-      <c r="AK5" s="139"/>
-      <c r="AL5" s="140"/>
-      <c r="AM5" s="142">
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="139">
         <f>AM6</f>
         <v>44662</v>
       </c>
-      <c r="AN5" s="139"/>
-      <c r="AO5" s="139"/>
-      <c r="AP5" s="139"/>
-      <c r="AQ5" s="139"/>
-      <c r="AR5" s="139"/>
-      <c r="AS5" s="140"/>
-      <c r="AT5" s="142">
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="139">
         <f>AT6</f>
         <v>44669</v>
       </c>
-      <c r="AU5" s="139"/>
-      <c r="AV5" s="139"/>
-      <c r="AW5" s="139"/>
-      <c r="AX5" s="139"/>
-      <c r="AY5" s="139"/>
-      <c r="AZ5" s="140"/>
-      <c r="BA5" s="142">
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="139">
         <f>BA6</f>
         <v>44676</v>
       </c>
-      <c r="BB5" s="139"/>
-      <c r="BC5" s="139"/>
-      <c r="BD5" s="139"/>
-      <c r="BE5" s="139"/>
-      <c r="BF5" s="139"/>
-      <c r="BG5" s="140"/>
-      <c r="BH5" s="142">
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="139">
         <f>BH6</f>
         <v>44683</v>
       </c>
-      <c r="BI5" s="139"/>
-      <c r="BJ5" s="139"/>
-      <c r="BK5" s="139"/>
-      <c r="BL5" s="139"/>
-      <c r="BM5" s="139"/>
-      <c r="BN5" s="140"/>
-      <c r="BO5" s="142">
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="137"/>
+      <c r="BO5" s="139">
         <f>BO6</f>
         <v>44690</v>
       </c>
-      <c r="BP5" s="139"/>
-      <c r="BQ5" s="139"/>
-      <c r="BR5" s="139"/>
-      <c r="BS5" s="139"/>
-      <c r="BT5" s="139"/>
-      <c r="BU5" s="140"/>
-      <c r="BV5" s="142">
+      <c r="BP5" s="136"/>
+      <c r="BQ5" s="136"/>
+      <c r="BR5" s="136"/>
+      <c r="BS5" s="136"/>
+      <c r="BT5" s="136"/>
+      <c r="BU5" s="137"/>
+      <c r="BV5" s="139">
         <f>BV6</f>
         <v>44697</v>
       </c>
-      <c r="BW5" s="139"/>
-      <c r="BX5" s="139"/>
-      <c r="BY5" s="139"/>
-      <c r="BZ5" s="139"/>
-      <c r="CA5" s="139"/>
-      <c r="CB5" s="140"/>
-      <c r="CC5" s="142">
+      <c r="BW5" s="136"/>
+      <c r="BX5" s="136"/>
+      <c r="BY5" s="136"/>
+      <c r="BZ5" s="136"/>
+      <c r="CA5" s="136"/>
+      <c r="CB5" s="137"/>
+      <c r="CC5" s="139">
         <f>CC6</f>
         <v>44704</v>
       </c>
-      <c r="CD5" s="139"/>
-      <c r="CE5" s="139"/>
-      <c r="CF5" s="139"/>
-      <c r="CG5" s="139"/>
-      <c r="CH5" s="139"/>
-      <c r="CI5" s="140"/>
-      <c r="CJ5" s="142">
+      <c r="CD5" s="136"/>
+      <c r="CE5" s="136"/>
+      <c r="CF5" s="136"/>
+      <c r="CG5" s="136"/>
+      <c r="CH5" s="136"/>
+      <c r="CI5" s="137"/>
+      <c r="CJ5" s="139">
         <f>CJ6</f>
         <v>44711</v>
       </c>
-      <c r="CK5" s="139"/>
-      <c r="CL5" s="139"/>
-      <c r="CM5" s="139"/>
-      <c r="CN5" s="139"/>
-      <c r="CO5" s="139"/>
-      <c r="CP5" s="140"/>
-      <c r="CQ5" s="142">
+      <c r="CK5" s="136"/>
+      <c r="CL5" s="136"/>
+      <c r="CM5" s="136"/>
+      <c r="CN5" s="136"/>
+      <c r="CO5" s="136"/>
+      <c r="CP5" s="137"/>
+      <c r="CQ5" s="139">
         <f>CQ6</f>
         <v>44718</v>
       </c>
-      <c r="CR5" s="139"/>
-      <c r="CS5" s="139"/>
-      <c r="CT5" s="139"/>
-      <c r="CU5" s="139"/>
-      <c r="CV5" s="139"/>
-      <c r="CW5" s="140"/>
-      <c r="CX5" s="148"/>
-      <c r="CY5" s="139"/>
-      <c r="CZ5" s="139"/>
-      <c r="DA5" s="139"/>
-      <c r="DB5" s="139"/>
-      <c r="DC5" s="139"/>
-      <c r="DD5" s="139"/>
+      <c r="CR5" s="136"/>
+      <c r="CS5" s="136"/>
+      <c r="CT5" s="136"/>
+      <c r="CU5" s="136"/>
+      <c r="CV5" s="136"/>
+      <c r="CW5" s="137"/>
+      <c r="CX5" s="145"/>
+      <c r="CY5" s="136"/>
+      <c r="CZ5" s="136"/>
+      <c r="DA5" s="136"/>
+      <c r="DB5" s="136"/>
+      <c r="DC5" s="136"/>
+      <c r="DD5" s="136"/>
     </row>
     <row r="6" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -2856,12 +2843,12 @@
       <c r="DC7" s="29"/>
       <c r="DD7" s="29"/>
     </row>
-    <row r="8" spans="1:108" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="149" t="s">
+    <row r="8" spans="1:108" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31">
         <v>44634</v>
@@ -2981,10 +2968,10 @@
       <c r="A9" s="40">
         <v>1</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="42"/>
       <c r="E9" s="31">
         <v>44634</v>
@@ -2999,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="45">
-        <f t="shared" ref="I9:I44" si="2">IF(OR(F9=0,E9=0)," - ",DATEDIF(E9,F9,"d"))</f>
+        <f t="shared" ref="I9:I58" si="2">IF(OR(F9=0,E9=0)," - ",DATEDIF(E9,F9,"d"))</f>
         <v>6</v>
       </c>
       <c r="J9" s="46"/>
@@ -3106,10 +3093,10 @@
       <c r="A10" s="40">
         <v>2</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="42"/>
       <c r="E10" s="31">
         <v>44641</v>
@@ -3229,10 +3216,10 @@
     </row>
     <row r="11" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="42"/>
       <c r="E11" s="31">
         <v>44641</v>
@@ -4094,10 +4081,10 @@
       <c r="A18" s="40">
         <v>3</v>
       </c>
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="42"/>
       <c r="E18" s="31">
         <v>44655</v>
@@ -4219,10 +4206,10 @@
       <c r="A19" s="40">
         <v>4</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="134"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="42"/>
       <c r="E19" s="31">
         <v>44658</v>
@@ -4341,11 +4328,11 @@
       <c r="DD19" s="49"/>
     </row>
     <row r="20" spans="1:108" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="135" t="s">
+      <c r="A20" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="58"/>
       <c r="E20" s="59">
         <v>44669</v>
@@ -4357,109 +4344,109 @@
       <c r="H20" s="61">
         <v>1</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="45">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="64"/>
-      <c r="AO20" s="64"/>
-      <c r="AP20" s="64"/>
-      <c r="AQ20" s="64"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="64"/>
-      <c r="AU20" s="64"/>
-      <c r="AV20" s="64"/>
-      <c r="AW20" s="64"/>
-      <c r="AX20" s="64"/>
-      <c r="AY20" s="64"/>
-      <c r="AZ20" s="64"/>
-      <c r="BA20" s="64"/>
-      <c r="BB20" s="64"/>
-      <c r="BC20" s="64"/>
-      <c r="BD20" s="64"/>
-      <c r="BE20" s="64"/>
-      <c r="BF20" s="64"/>
-      <c r="BG20" s="64"/>
-      <c r="BH20" s="64"/>
-      <c r="BI20" s="64"/>
-      <c r="BJ20" s="64"/>
-      <c r="BK20" s="64"/>
-      <c r="BL20" s="64"/>
-      <c r="BM20" s="64"/>
-      <c r="BN20" s="64"/>
-      <c r="BO20" s="65"/>
-      <c r="BP20" s="65"/>
-      <c r="BQ20" s="65"/>
-      <c r="BR20" s="65"/>
-      <c r="BS20" s="65"/>
-      <c r="BT20" s="65"/>
-      <c r="BU20" s="65"/>
-      <c r="BV20" s="65"/>
-      <c r="BW20" s="65"/>
-      <c r="BX20" s="65"/>
-      <c r="BY20" s="65"/>
-      <c r="BZ20" s="65"/>
-      <c r="CA20" s="65"/>
-      <c r="CB20" s="65"/>
-      <c r="CC20" s="65"/>
-      <c r="CD20" s="65"/>
-      <c r="CE20" s="65"/>
-      <c r="CF20" s="65"/>
-      <c r="CG20" s="65"/>
-      <c r="CH20" s="65"/>
-      <c r="CI20" s="65"/>
-      <c r="CJ20" s="65"/>
-      <c r="CK20" s="65"/>
-      <c r="CL20" s="65"/>
-      <c r="CM20" s="65"/>
-      <c r="CN20" s="65"/>
-      <c r="CO20" s="65"/>
-      <c r="CP20" s="65"/>
-      <c r="CQ20" s="65"/>
-      <c r="CR20" s="65"/>
-      <c r="CS20" s="65"/>
-      <c r="CT20" s="65"/>
-      <c r="CU20" s="65"/>
-      <c r="CV20" s="65"/>
-      <c r="CW20" s="65"/>
-      <c r="CX20" s="66"/>
-      <c r="CY20" s="66"/>
-      <c r="CZ20" s="66"/>
-      <c r="DA20" s="66"/>
-      <c r="DB20" s="66"/>
-      <c r="DC20" s="66"/>
-      <c r="DD20" s="66"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="63"/>
+      <c r="AZ20" s="63"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
+      <c r="BG20" s="63"/>
+      <c r="BH20" s="63"/>
+      <c r="BI20" s="63"/>
+      <c r="BJ20" s="63"/>
+      <c r="BK20" s="63"/>
+      <c r="BL20" s="63"/>
+      <c r="BM20" s="63"/>
+      <c r="BN20" s="63"/>
+      <c r="BO20" s="64"/>
+      <c r="BP20" s="64"/>
+      <c r="BQ20" s="64"/>
+      <c r="BR20" s="64"/>
+      <c r="BS20" s="64"/>
+      <c r="BT20" s="64"/>
+      <c r="BU20" s="64"/>
+      <c r="BV20" s="64"/>
+      <c r="BW20" s="64"/>
+      <c r="BX20" s="64"/>
+      <c r="BY20" s="64"/>
+      <c r="BZ20" s="64"/>
+      <c r="CA20" s="64"/>
+      <c r="CB20" s="64"/>
+      <c r="CC20" s="64"/>
+      <c r="CD20" s="64"/>
+      <c r="CE20" s="64"/>
+      <c r="CF20" s="64"/>
+      <c r="CG20" s="64"/>
+      <c r="CH20" s="64"/>
+      <c r="CI20" s="64"/>
+      <c r="CJ20" s="64"/>
+      <c r="CK20" s="64"/>
+      <c r="CL20" s="64"/>
+      <c r="CM20" s="64"/>
+      <c r="CN20" s="64"/>
+      <c r="CO20" s="64"/>
+      <c r="CP20" s="64"/>
+      <c r="CQ20" s="64"/>
+      <c r="CR20" s="64"/>
+      <c r="CS20" s="64"/>
+      <c r="CT20" s="64"/>
+      <c r="CU20" s="64"/>
+      <c r="CV20" s="64"/>
+      <c r="CW20" s="64"/>
+      <c r="CX20" s="65"/>
+      <c r="CY20" s="65"/>
+      <c r="CZ20" s="65"/>
+      <c r="DA20" s="65"/>
+      <c r="DB20" s="65"/>
+      <c r="DC20" s="65"/>
+      <c r="DD20" s="65"/>
     </row>
     <row r="21" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40">
@@ -4834,12 +4821,12 @@
     </row>
     <row r="24" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="134"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="67">
+      <c r="E24" s="66">
         <v>44669</v>
       </c>
       <c r="F24" s="31">
@@ -4956,11 +4943,11 @@
       <c r="DD24" s="49"/>
     </row>
     <row r="25" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="42"/>
       <c r="E25" s="31">
         <v>44681</v>
@@ -5402,45 +5389,45 @@
       <c r="BL28" s="50"/>
       <c r="BM28" s="50"/>
       <c r="BN28" s="50"/>
-      <c r="BO28" s="70"/>
-      <c r="BP28" s="70"/>
-      <c r="BQ28" s="70"/>
-      <c r="BR28" s="70"/>
-      <c r="BS28" s="70"/>
-      <c r="BT28" s="70"/>
-      <c r="BU28" s="70"/>
-      <c r="BV28" s="70"/>
-      <c r="BW28" s="70"/>
-      <c r="BX28" s="70"/>
-      <c r="BY28" s="70"/>
-      <c r="BZ28" s="70"/>
-      <c r="CA28" s="70"/>
-      <c r="CB28" s="70"/>
-      <c r="CC28" s="70"/>
-      <c r="CD28" s="70"/>
-      <c r="CE28" s="70"/>
-      <c r="CF28" s="70"/>
-      <c r="CG28" s="70"/>
-      <c r="CH28" s="70"/>
-      <c r="CI28" s="70"/>
-      <c r="CJ28" s="70"/>
-      <c r="CK28" s="70"/>
-      <c r="CL28" s="70"/>
-      <c r="CM28" s="70"/>
-      <c r="CN28" s="70"/>
-      <c r="CO28" s="70"/>
-      <c r="CP28" s="70"/>
-      <c r="CQ28" s="70"/>
-      <c r="CR28" s="70"/>
-      <c r="CS28" s="70"/>
-      <c r="CT28" s="70"/>
-      <c r="CU28" s="70"/>
-      <c r="CV28" s="70"/>
-      <c r="CW28" s="70"/>
-      <c r="CX28" s="70"/>
-      <c r="CY28" s="70"/>
-      <c r="CZ28" s="70"/>
-      <c r="DA28" s="70"/>
+      <c r="BO28" s="69"/>
+      <c r="BP28" s="69"/>
+      <c r="BQ28" s="69"/>
+      <c r="BR28" s="69"/>
+      <c r="BS28" s="69"/>
+      <c r="BT28" s="69"/>
+      <c r="BU28" s="69"/>
+      <c r="BV28" s="69"/>
+      <c r="BW28" s="69"/>
+      <c r="BX28" s="69"/>
+      <c r="BY28" s="69"/>
+      <c r="BZ28" s="69"/>
+      <c r="CA28" s="69"/>
+      <c r="CB28" s="69"/>
+      <c r="CC28" s="69"/>
+      <c r="CD28" s="69"/>
+      <c r="CE28" s="69"/>
+      <c r="CF28" s="69"/>
+      <c r="CG28" s="69"/>
+      <c r="CH28" s="69"/>
+      <c r="CI28" s="69"/>
+      <c r="CJ28" s="69"/>
+      <c r="CK28" s="69"/>
+      <c r="CL28" s="69"/>
+      <c r="CM28" s="69"/>
+      <c r="CN28" s="69"/>
+      <c r="CO28" s="69"/>
+      <c r="CP28" s="69"/>
+      <c r="CQ28" s="69"/>
+      <c r="CR28" s="69"/>
+      <c r="CS28" s="69"/>
+      <c r="CT28" s="69"/>
+      <c r="CU28" s="69"/>
+      <c r="CV28" s="69"/>
+      <c r="CW28" s="69"/>
+      <c r="CX28" s="69"/>
+      <c r="CY28" s="69"/>
+      <c r="CZ28" s="69"/>
+      <c r="DA28" s="69"/>
       <c r="DB28" s="49"/>
       <c r="DC28" s="49"/>
       <c r="DD28" s="49"/>
@@ -5525,45 +5512,45 @@
       <c r="BL29" s="50"/>
       <c r="BM29" s="50"/>
       <c r="BN29" s="50"/>
-      <c r="BO29" s="70"/>
-      <c r="BP29" s="70"/>
-      <c r="BQ29" s="70"/>
-      <c r="BR29" s="70"/>
-      <c r="BS29" s="70"/>
-      <c r="BT29" s="70"/>
-      <c r="BU29" s="70"/>
-      <c r="BV29" s="70"/>
-      <c r="BW29" s="70"/>
-      <c r="BX29" s="70"/>
-      <c r="BY29" s="70"/>
-      <c r="BZ29" s="70"/>
-      <c r="CA29" s="70"/>
-      <c r="CB29" s="70"/>
-      <c r="CC29" s="70"/>
-      <c r="CD29" s="70"/>
-      <c r="CE29" s="70"/>
-      <c r="CF29" s="70"/>
-      <c r="CG29" s="70"/>
-      <c r="CH29" s="70"/>
-      <c r="CI29" s="70"/>
-      <c r="CJ29" s="70"/>
-      <c r="CK29" s="70"/>
-      <c r="CL29" s="70"/>
-      <c r="CM29" s="70"/>
-      <c r="CN29" s="70"/>
-      <c r="CO29" s="70"/>
-      <c r="CP29" s="70"/>
-      <c r="CQ29" s="70"/>
-      <c r="CR29" s="70"/>
-      <c r="CS29" s="70"/>
-      <c r="CT29" s="70"/>
-      <c r="CU29" s="70"/>
-      <c r="CV29" s="70"/>
-      <c r="CW29" s="70"/>
-      <c r="CX29" s="70"/>
-      <c r="CY29" s="70"/>
-      <c r="CZ29" s="70"/>
-      <c r="DA29" s="70"/>
+      <c r="BO29" s="69"/>
+      <c r="BP29" s="69"/>
+      <c r="BQ29" s="69"/>
+      <c r="BR29" s="69"/>
+      <c r="BS29" s="69"/>
+      <c r="BT29" s="69"/>
+      <c r="BU29" s="69"/>
+      <c r="BV29" s="69"/>
+      <c r="BW29" s="69"/>
+      <c r="BX29" s="69"/>
+      <c r="BY29" s="69"/>
+      <c r="BZ29" s="69"/>
+      <c r="CA29" s="69"/>
+      <c r="CB29" s="69"/>
+      <c r="CC29" s="69"/>
+      <c r="CD29" s="69"/>
+      <c r="CE29" s="69"/>
+      <c r="CF29" s="69"/>
+      <c r="CG29" s="69"/>
+      <c r="CH29" s="69"/>
+      <c r="CI29" s="69"/>
+      <c r="CJ29" s="69"/>
+      <c r="CK29" s="69"/>
+      <c r="CL29" s="69"/>
+      <c r="CM29" s="69"/>
+      <c r="CN29" s="69"/>
+      <c r="CO29" s="69"/>
+      <c r="CP29" s="69"/>
+      <c r="CQ29" s="69"/>
+      <c r="CR29" s="69"/>
+      <c r="CS29" s="69"/>
+      <c r="CT29" s="69"/>
+      <c r="CU29" s="69"/>
+      <c r="CV29" s="69"/>
+      <c r="CW29" s="69"/>
+      <c r="CX29" s="69"/>
+      <c r="CY29" s="69"/>
+      <c r="CZ29" s="69"/>
+      <c r="DA29" s="69"/>
       <c r="DB29" s="49"/>
       <c r="DC29" s="49"/>
       <c r="DD29" s="49"/>
@@ -5648,121 +5635,123 @@
       <c r="BL30" s="50"/>
       <c r="BM30" s="50"/>
       <c r="BN30" s="50"/>
-      <c r="BO30" s="70"/>
-      <c r="BP30" s="70"/>
-      <c r="BQ30" s="70"/>
-      <c r="BR30" s="70"/>
-      <c r="BS30" s="70"/>
-      <c r="BT30" s="70"/>
-      <c r="BU30" s="70"/>
-      <c r="BV30" s="70"/>
-      <c r="BW30" s="70"/>
-      <c r="BX30" s="70"/>
-      <c r="BY30" s="70"/>
-      <c r="BZ30" s="70"/>
-      <c r="CA30" s="70"/>
-      <c r="CB30" s="70"/>
-      <c r="CC30" s="70"/>
-      <c r="CD30" s="70"/>
-      <c r="CE30" s="70"/>
-      <c r="CF30" s="70"/>
-      <c r="CG30" s="70"/>
-      <c r="CH30" s="70"/>
-      <c r="CI30" s="70"/>
-      <c r="CJ30" s="70"/>
-      <c r="CK30" s="70"/>
-      <c r="CL30" s="70"/>
-      <c r="CM30" s="70"/>
-      <c r="CN30" s="70"/>
-      <c r="CO30" s="70"/>
-      <c r="CP30" s="70"/>
-      <c r="CQ30" s="70"/>
-      <c r="CR30" s="70"/>
-      <c r="CS30" s="70"/>
-      <c r="CT30" s="70"/>
-      <c r="CU30" s="70"/>
-      <c r="CV30" s="70"/>
-      <c r="CW30" s="70"/>
-      <c r="CX30" s="70"/>
-      <c r="CY30" s="70"/>
-      <c r="CZ30" s="70"/>
-      <c r="DA30" s="70"/>
+      <c r="BO30" s="69"/>
+      <c r="BP30" s="69"/>
+      <c r="BQ30" s="69"/>
+      <c r="BR30" s="69"/>
+      <c r="BS30" s="69"/>
+      <c r="BT30" s="69"/>
+      <c r="BU30" s="69"/>
+      <c r="BV30" s="69"/>
+      <c r="BW30" s="69"/>
+      <c r="BX30" s="69"/>
+      <c r="BY30" s="69"/>
+      <c r="BZ30" s="69"/>
+      <c r="CA30" s="69"/>
+      <c r="CB30" s="69"/>
+      <c r="CC30" s="69"/>
+      <c r="CD30" s="69"/>
+      <c r="CE30" s="69"/>
+      <c r="CF30" s="69"/>
+      <c r="CG30" s="69"/>
+      <c r="CH30" s="69"/>
+      <c r="CI30" s="69"/>
+      <c r="CJ30" s="69"/>
+      <c r="CK30" s="69"/>
+      <c r="CL30" s="69"/>
+      <c r="CM30" s="69"/>
+      <c r="CN30" s="69"/>
+      <c r="CO30" s="69"/>
+      <c r="CP30" s="69"/>
+      <c r="CQ30" s="69"/>
+      <c r="CR30" s="69"/>
+      <c r="CS30" s="69"/>
+      <c r="CT30" s="69"/>
+      <c r="CU30" s="69"/>
+      <c r="CV30" s="69"/>
+      <c r="CW30" s="69"/>
+      <c r="CX30" s="69"/>
+      <c r="CY30" s="69"/>
+      <c r="CZ30" s="69"/>
+      <c r="DA30" s="69"/>
       <c r="DB30" s="49"/>
       <c r="DC30" s="49"/>
       <c r="DD30" s="49"/>
     </row>
     <row r="31" spans="1:108" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="135" t="s">
+      <c r="A31" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="42"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="31">
+        <v>44690</v>
+      </c>
       <c r="F31" s="31"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="62" t="str">
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="45" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="74"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="74"/>
-      <c r="AG31" s="74"/>
-      <c r="AH31" s="74"/>
-      <c r="AI31" s="74"/>
-      <c r="AJ31" s="74"/>
-      <c r="AK31" s="74"/>
-      <c r="AL31" s="74"/>
-      <c r="AM31" s="74"/>
-      <c r="AN31" s="74"/>
-      <c r="AO31" s="74"/>
-      <c r="AP31" s="74"/>
-      <c r="AQ31" s="74"/>
-      <c r="AR31" s="74"/>
-      <c r="AS31" s="74"/>
-      <c r="AT31" s="74"/>
-      <c r="AU31" s="74"/>
-      <c r="AV31" s="74"/>
-      <c r="AW31" s="74"/>
-      <c r="AX31" s="74"/>
-      <c r="AY31" s="74"/>
-      <c r="AZ31" s="74"/>
-      <c r="BA31" s="74"/>
-      <c r="BB31" s="74"/>
-      <c r="BC31" s="74"/>
-      <c r="BD31" s="74"/>
-      <c r="BE31" s="74"/>
-      <c r="BF31" s="74"/>
-      <c r="BG31" s="74"/>
-      <c r="BH31" s="74"/>
-      <c r="BI31" s="74"/>
-      <c r="BJ31" s="74"/>
-      <c r="BK31" s="74"/>
-      <c r="BL31" s="74"/>
-      <c r="BM31" s="74"/>
-      <c r="BN31" s="74"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="73"/>
+      <c r="AX31" s="73"/>
+      <c r="AY31" s="73"/>
+      <c r="AZ31" s="73"/>
+      <c r="BA31" s="73"/>
+      <c r="BB31" s="73"/>
+      <c r="BC31" s="73"/>
+      <c r="BD31" s="73"/>
+      <c r="BE31" s="73"/>
+      <c r="BF31" s="73"/>
+      <c r="BG31" s="73"/>
+      <c r="BH31" s="73"/>
+      <c r="BI31" s="73"/>
+      <c r="BJ31" s="73"/>
+      <c r="BK31" s="73"/>
+      <c r="BL31" s="73"/>
+      <c r="BM31" s="73"/>
+      <c r="BN31" s="73"/>
       <c r="BO31" s="39"/>
       <c r="BP31" s="39"/>
       <c r="BQ31" s="39"/>
@@ -5810,10 +5799,10 @@
       <c r="A32" s="40">
         <v>6</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="134"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="42"/>
       <c r="E32" s="31">
         <v>44690</v>
@@ -5933,10 +5922,10 @@
     </row>
     <row r="33" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
-      <c r="B33" s="137" t="s">
+      <c r="B33" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="134"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="42"/>
       <c r="E33" s="31">
         <v>44690</v>
@@ -5947,7 +5936,9 @@
       <c r="G33" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="33"/>
+      <c r="H33" s="33">
+        <v>1</v>
+      </c>
       <c r="I33" s="45">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6054,10 +6045,10 @@
     </row>
     <row r="34" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="134"/>
+      <c r="C34" s="131"/>
       <c r="D34" s="42"/>
       <c r="E34" s="31">
         <v>44690</v>
@@ -6068,7 +6059,9 @@
       <c r="G34" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="33"/>
+      <c r="H34" s="33">
+        <v>1</v>
+      </c>
       <c r="I34" s="45">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6175,10 +6168,10 @@
     </row>
     <row r="35" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="51"/>
-      <c r="B35" s="136" t="s">
+      <c r="B35" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="134"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="42"/>
       <c r="E35" s="31">
         <v>44690</v>
@@ -6189,7 +6182,9 @@
       <c r="G35" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="33"/>
+      <c r="H35" s="33">
+        <v>1</v>
+      </c>
       <c r="I35" s="45">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6295,27 +6290,29 @@
       <c r="DD35" s="49"/>
     </row>
     <row r="36" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="75">
-        <v>44567</v>
-      </c>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="40">
+        <v>7</v>
+      </c>
+      <c r="B36" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="41"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="42"/>
       <c r="E36" s="31">
         <v>44690</v>
       </c>
       <c r="F36" s="31">
-        <v>44696</v>
+        <v>44703</v>
       </c>
       <c r="G36" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="33"/>
+      <c r="H36" s="33">
+        <v>1</v>
+      </c>
       <c r="I36" s="45">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J36" s="46"/>
       <c r="K36" s="47"/>
@@ -6418,25 +6415,27 @@
       <c r="DD36" s="49"/>
     </row>
     <row r="37" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52" t="s">
+      <c r="A37" s="74"/>
+      <c r="B37" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="42"/>
       <c r="E37" s="31">
         <v>44690</v>
       </c>
       <c r="F37" s="31">
-        <v>44696</v>
+        <v>44703</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="33"/>
+        <v>23</v>
+      </c>
+      <c r="H37" s="33">
+        <v>1</v>
+      </c>
       <c r="I37" s="45">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J37" s="46"/>
       <c r="K37" s="47"/>
@@ -6540,24 +6539,26 @@
     </row>
     <row r="38" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="131"/>
       <c r="D38" s="42"/>
       <c r="E38" s="31">
         <v>44690</v>
       </c>
       <c r="F38" s="31">
-        <v>44696</v>
+        <v>44703</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="33"/>
+        <v>23</v>
+      </c>
+      <c r="H38" s="33">
+        <v>1</v>
+      </c>
       <c r="I38" s="45">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J38" s="46"/>
       <c r="K38" s="47"/>
@@ -6660,13 +6661,11 @@
       <c r="DD38" s="49"/>
     </row>
     <row r="39" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40">
-        <v>7</v>
-      </c>
-      <c r="B39" s="133" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="134"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="42"/>
       <c r="E39" s="31">
         <v>44690</v>
@@ -6675,9 +6674,11 @@
         <v>44703</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="33"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="33">
+        <v>1</v>
+      </c>
       <c r="I39" s="45">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -6782,26 +6783,28 @@
       <c r="DC39" s="49"/>
       <c r="DD39" s="49"/>
     </row>
-    <row r="40" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="76"/>
-      <c r="B40" s="77" t="s">
+    <row r="40" spans="1:108" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="40">
+        <v>8</v>
+      </c>
+      <c r="B40" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="77"/>
+      <c r="C40" s="131"/>
       <c r="D40" s="42"/>
       <c r="E40" s="31">
         <v>44690</v>
       </c>
-      <c r="F40" s="31">
-        <v>44703</v>
-      </c>
+      <c r="F40" s="31"/>
       <c r="G40" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="45">
+        <v>16</v>
+      </c>
+      <c r="H40" s="33">
+        <v>1</v>
+      </c>
+      <c r="I40" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="J40" s="46"/>
       <c r="K40" s="47"/>
@@ -6903,26 +6906,28 @@
       <c r="DC40" s="49"/>
       <c r="DD40" s="49"/>
     </row>
-    <row r="41" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="51"/>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="134"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="42"/>
       <c r="E41" s="31">
         <v>44690</v>
       </c>
       <c r="F41" s="31">
-        <v>44703</v>
+        <v>44696</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="33"/>
+        <v>19</v>
+      </c>
+      <c r="H41" s="33">
+        <v>1</v>
+      </c>
       <c r="I41" s="45">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="47"/>
@@ -7024,7 +7029,7 @@
       <c r="DC41" s="49"/>
       <c r="DD41" s="49"/>
     </row>
-    <row r="42" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="51"/>
       <c r="B42" s="52" t="s">
         <v>53</v>
@@ -7035,15 +7040,17 @@
         <v>44690</v>
       </c>
       <c r="F42" s="31">
-        <v>44703</v>
+        <v>44696</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="33"/>
+        <v>19</v>
+      </c>
+      <c r="H42" s="33">
+        <v>1</v>
+      </c>
       <c r="I42" s="45">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J42" s="46"/>
       <c r="K42" s="47"/>
@@ -7145,26 +7152,26 @@
       <c r="DC42" s="49"/>
       <c r="DD42" s="49"/>
     </row>
-    <row r="43" spans="1:108" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="40">
-        <v>8</v>
-      </c>
+    <row r="43" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
       <c r="B43" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="134"/>
+      <c r="C43" s="131"/>
       <c r="D43" s="42"/>
       <c r="E43" s="31">
-        <v>44690</v>
-      </c>
-      <c r="F43" s="31"/>
+        <v>44704</v>
+      </c>
+      <c r="F43" s="31">
+        <v>44710</v>
+      </c>
       <c r="G43" s="44" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H43" s="33"/>
-      <c r="I43" s="45" t="str">
+      <c r="I43" s="45">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
+        <v>6</v>
       </c>
       <c r="J43" s="46"/>
       <c r="K43" s="47"/>
@@ -7266,21 +7273,21 @@
       <c r="DC43" s="49"/>
       <c r="DD43" s="49"/>
     </row>
-    <row r="44" spans="1:108" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
-      <c r="B44" s="136" t="s">
+    <row r="44" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="47"/>
+      <c r="B44" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="134"/>
+      <c r="C44" s="131"/>
       <c r="D44" s="42"/>
       <c r="E44" s="31">
-        <v>44690</v>
+        <v>44704</v>
       </c>
       <c r="F44" s="31">
-        <v>44696</v>
+        <v>44710</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="45">
@@ -7388,17 +7395,26 @@
       <c r="DD44" s="49"/>
     </row>
     <row r="45" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="136" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="134"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="42"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="44"/>
+      <c r="E45" s="31">
+        <v>44704</v>
+      </c>
+      <c r="F45" s="31">
+        <v>44710</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="H45" s="33"/>
-      <c r="I45" s="45"/>
+      <c r="I45" s="45">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="J45" s="46"/>
       <c r="K45" s="47"/>
       <c r="L45" s="47"/>
@@ -7501,16 +7517,25 @@
     </row>
     <row r="46" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="47"/>
-      <c r="B46" s="136" t="s">
+      <c r="B46" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="134"/>
+      <c r="C46" s="131"/>
       <c r="D46" s="42"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="44"/>
+      <c r="E46" s="31">
+        <v>44704</v>
+      </c>
+      <c r="F46" s="31">
+        <v>44710</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="H46" s="33"/>
-      <c r="I46" s="45"/>
+      <c r="I46" s="45">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="J46" s="46"/>
       <c r="K46" s="47"/>
       <c r="L46" s="47"/>
@@ -7611,18 +7636,26 @@
       <c r="DC46" s="49"/>
       <c r="DD46" s="49"/>
     </row>
-    <row r="47" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="47"/>
-      <c r="B47" s="136" t="s">
+      <c r="B47" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="134"/>
       <c r="D47" s="42"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="44"/>
+      <c r="E47" s="31">
+        <v>44704</v>
+      </c>
+      <c r="F47" s="31">
+        <v>44710</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="H47" s="33"/>
-      <c r="I47" s="45"/>
+      <c r="I47" s="45">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="J47" s="46"/>
       <c r="K47" s="47"/>
       <c r="L47" s="47"/>
@@ -7723,18 +7756,26 @@
       <c r="DC47" s="49"/>
       <c r="DD47" s="49"/>
     </row>
-    <row r="48" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="47"/>
-      <c r="B48" s="136" t="s">
+      <c r="B48" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="134"/>
       <c r="D48" s="42"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="44"/>
+      <c r="E48" s="31">
+        <v>44704</v>
+      </c>
+      <c r="F48" s="31">
+        <v>44710</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="H48" s="33"/>
-      <c r="I48" s="45"/>
+      <c r="I48" s="45">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="J48" s="46"/>
       <c r="K48" s="47"/>
       <c r="L48" s="47"/>
@@ -7837,15 +7878,23 @@
     </row>
     <row r="49" spans="1:108" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="47"/>
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="133" t="s">
         <v>60</v>
       </c>
+      <c r="C49" s="131"/>
       <c r="D49" s="42"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="44"/>
+      <c r="E49" s="31">
+        <v>44711</v>
+      </c>
+      <c r="F49" s="31">
+        <v>44720</v>
+      </c>
+      <c r="G49" s="77"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="45"/>
+      <c r="I49" s="45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="J49" s="46"/>
       <c r="K49" s="47"/>
       <c r="L49" s="47"/>
@@ -7946,18 +7995,25 @@
       <c r="DC49" s="49"/>
       <c r="DD49" s="49"/>
     </row>
-    <row r="50" spans="1:108" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="47"/>
-      <c r="B50" s="136" t="s">
+      <c r="B50" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="134"/>
+      <c r="C50" s="131"/>
       <c r="D50" s="42"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="79"/>
+      <c r="E50" s="31">
+        <v>44711</v>
+      </c>
+      <c r="F50" s="31">
+        <v>44720</v>
+      </c>
+      <c r="G50" s="44"/>
       <c r="H50" s="33"/>
-      <c r="I50" s="45"/>
+      <c r="I50" s="45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="J50" s="46"/>
       <c r="K50" s="47"/>
       <c r="L50" s="47"/>
@@ -8060,16 +8116,23 @@
     </row>
     <row r="51" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="47"/>
-      <c r="B51" s="136" t="s">
+      <c r="B51" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="134"/>
+      <c r="C51" s="131"/>
       <c r="D51" s="42"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
+      <c r="E51" s="31">
+        <v>44711</v>
+      </c>
+      <c r="F51" s="31">
+        <v>44720</v>
+      </c>
       <c r="G51" s="44"/>
       <c r="H51" s="33"/>
-      <c r="I51" s="45"/>
+      <c r="I51" s="45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="J51" s="46"/>
       <c r="K51" s="47"/>
       <c r="L51" s="47"/>
@@ -8172,16 +8235,23 @@
     </row>
     <row r="52" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="47"/>
-      <c r="B52" s="136" t="s">
+      <c r="B52" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="134"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="42"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
+      <c r="E52" s="31">
+        <v>44711</v>
+      </c>
+      <c r="F52" s="31">
+        <v>44720</v>
+      </c>
       <c r="G52" s="44"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="45"/>
+      <c r="I52" s="45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="J52" s="46"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
@@ -8287,13 +8357,20 @@
       <c r="B53" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="80"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="42"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="E53" s="31">
+        <v>44711</v>
+      </c>
+      <c r="F53" s="31">
+        <v>44720</v>
+      </c>
       <c r="G53" s="44"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="45"/>
+      <c r="I53" s="45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="J53" s="46"/>
       <c r="K53" s="47"/>
       <c r="L53" s="47"/>
@@ -8399,13 +8476,20 @@
       <c r="B54" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="80"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
+      <c r="E54" s="31">
+        <v>44711</v>
+      </c>
+      <c r="F54" s="31">
+        <v>44720</v>
+      </c>
       <c r="G54" s="44"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="45"/>
+      <c r="I54" s="45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="J54" s="46"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
@@ -8508,17 +8592,24 @@
     </row>
     <row r="55" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="47"/>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="46"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="31">
+        <v>44711</v>
+      </c>
+      <c r="F55" s="31">
+        <v>44720</v>
+      </c>
+      <c r="G55" s="80"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J55" s="82"/>
       <c r="K55" s="47"/>
       <c r="L55" s="47"/>
       <c r="M55" s="47"/>
@@ -8620,17 +8711,18 @@
     </row>
     <row r="56" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
-      <c r="B56" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="134"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="86"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J56" s="82"/>
       <c r="K56" s="47"/>
       <c r="L56" s="47"/>
       <c r="M56" s="47"/>
@@ -8733,14 +8825,17 @@
     <row r="57" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
       <c r="B57" s="52"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="86"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J57" s="82"/>
       <c r="K57" s="47"/>
       <c r="L57" s="47"/>
       <c r="M57" s="47"/>
@@ -8843,14 +8938,17 @@
     <row r="58" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47"/>
       <c r="B58" s="52"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="86"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J58" s="82"/>
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
       <c r="M58" s="47"/>
@@ -8951,182 +9049,193 @@
       <c r="DD58" s="49"/>
     </row>
     <row r="59" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
-      <c r="X59" s="47"/>
-      <c r="Y59" s="47"/>
-      <c r="Z59" s="47"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="47"/>
-      <c r="AC59" s="47"/>
-      <c r="AD59" s="47"/>
-      <c r="AE59" s="47"/>
-      <c r="AF59" s="47"/>
-      <c r="AG59" s="47"/>
-      <c r="AH59" s="47"/>
-      <c r="AI59" s="47"/>
-      <c r="AJ59" s="47"/>
-      <c r="AK59" s="47"/>
-      <c r="AL59" s="47"/>
-      <c r="AM59" s="47"/>
-      <c r="AN59" s="47"/>
-      <c r="AO59" s="47"/>
-      <c r="AP59" s="47"/>
-      <c r="AQ59" s="47"/>
-      <c r="AR59" s="47"/>
-      <c r="AS59" s="47"/>
-      <c r="AT59" s="47"/>
-      <c r="AU59" s="47"/>
-      <c r="AV59" s="47"/>
-      <c r="AW59" s="47"/>
-      <c r="AX59" s="47"/>
-      <c r="AY59" s="47"/>
-      <c r="AZ59" s="47"/>
-      <c r="BA59" s="47"/>
-      <c r="BB59" s="47"/>
-      <c r="BC59" s="47"/>
-      <c r="BD59" s="47"/>
-      <c r="BE59" s="47"/>
-      <c r="BF59" s="47"/>
-      <c r="BG59" s="47"/>
-      <c r="BH59" s="47"/>
-      <c r="BI59" s="47"/>
-      <c r="BJ59" s="47"/>
-      <c r="BK59" s="47"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="73"/>
+      <c r="Z59" s="73"/>
+      <c r="AA59" s="73"/>
+      <c r="AB59" s="73"/>
+      <c r="AC59" s="73"/>
+      <c r="AD59" s="73"/>
+      <c r="AE59" s="73"/>
+      <c r="AF59" s="73"/>
+      <c r="AG59" s="73"/>
+      <c r="AH59" s="73"/>
+      <c r="AI59" s="73"/>
+      <c r="AJ59" s="73"/>
+      <c r="AK59" s="73"/>
+      <c r="AL59" s="73"/>
+      <c r="AM59" s="73"/>
+      <c r="AN59" s="73"/>
+      <c r="AO59" s="73"/>
+      <c r="AP59" s="73"/>
+      <c r="AQ59" s="73"/>
+      <c r="AR59" s="73"/>
+      <c r="AS59" s="73"/>
+      <c r="AT59" s="73"/>
+      <c r="AU59" s="73"/>
+      <c r="AV59" s="73"/>
+      <c r="AW59" s="73"/>
+      <c r="AX59" s="73"/>
+      <c r="AY59" s="73"/>
+      <c r="AZ59" s="73"/>
+      <c r="BA59" s="73"/>
+      <c r="BB59" s="73"/>
+      <c r="BC59" s="73"/>
+      <c r="BD59" s="73"/>
+      <c r="BE59" s="73"/>
+      <c r="BF59" s="73"/>
+      <c r="BG59" s="73"/>
+      <c r="BH59" s="73"/>
+      <c r="BI59" s="73"/>
+      <c r="BJ59" s="73"/>
+      <c r="BK59" s="73"/>
       <c r="BL59" s="50"/>
-      <c r="BM59" s="47"/>
-      <c r="BN59" s="47"/>
-      <c r="BO59" s="49"/>
-      <c r="BP59" s="49"/>
-      <c r="BQ59" s="49"/>
-      <c r="BR59" s="49"/>
-      <c r="BS59" s="49"/>
-      <c r="BT59" s="49"/>
-      <c r="BU59" s="49"/>
-      <c r="BV59" s="49"/>
-      <c r="BW59" s="49"/>
-      <c r="BX59" s="49"/>
-      <c r="BY59" s="49"/>
-      <c r="BZ59" s="49"/>
-      <c r="CA59" s="49"/>
-      <c r="CB59" s="49"/>
-      <c r="CC59" s="49"/>
-      <c r="CD59" s="49"/>
-      <c r="CE59" s="49"/>
-      <c r="CF59" s="49"/>
-      <c r="CG59" s="49"/>
-      <c r="CH59" s="49"/>
-      <c r="CI59" s="49"/>
-      <c r="CJ59" s="49"/>
-      <c r="CK59" s="49"/>
-      <c r="CL59" s="49"/>
-      <c r="CM59" s="49"/>
-      <c r="CN59" s="49"/>
-      <c r="CO59" s="49"/>
-      <c r="CP59" s="49"/>
-      <c r="CQ59" s="49"/>
-      <c r="CR59" s="49"/>
-      <c r="CS59" s="49"/>
-      <c r="CT59" s="49"/>
-      <c r="CU59" s="49"/>
-      <c r="CV59" s="49"/>
-      <c r="CW59" s="49"/>
-      <c r="CX59" s="49"/>
-      <c r="CY59" s="49"/>
-      <c r="CZ59" s="49"/>
-      <c r="DA59" s="49"/>
-      <c r="DB59" s="49"/>
-      <c r="DC59" s="49"/>
-      <c r="DD59" s="49"/>
+      <c r="BM59" s="73"/>
+      <c r="BN59" s="73"/>
+      <c r="BO59" s="39"/>
+      <c r="BP59" s="39"/>
+      <c r="BQ59" s="39"/>
+      <c r="BR59" s="39"/>
+      <c r="BS59" s="39"/>
+      <c r="BT59" s="39"/>
+      <c r="BU59" s="39"/>
+      <c r="BV59" s="39"/>
+      <c r="BW59" s="39"/>
+      <c r="BX59" s="39"/>
+      <c r="BY59" s="39"/>
+      <c r="BZ59" s="39"/>
+      <c r="CA59" s="39"/>
+      <c r="CB59" s="39"/>
+      <c r="CC59" s="39"/>
+      <c r="CD59" s="39"/>
+      <c r="CE59" s="39"/>
+      <c r="CF59" s="39"/>
+      <c r="CG59" s="39"/>
+      <c r="CH59" s="39"/>
+      <c r="CI59" s="39"/>
+      <c r="CJ59" s="39"/>
+      <c r="CK59" s="39"/>
+      <c r="CL59" s="39"/>
+      <c r="CM59" s="39"/>
+      <c r="CN59" s="39"/>
+      <c r="CO59" s="39"/>
+      <c r="CP59" s="39"/>
+      <c r="CQ59" s="39"/>
+      <c r="CR59" s="39"/>
+      <c r="CS59" s="39"/>
+      <c r="CT59" s="39"/>
+      <c r="CU59" s="39"/>
+      <c r="CV59" s="39"/>
+      <c r="CW59" s="39"/>
+      <c r="CX59" s="39"/>
+      <c r="CY59" s="39"/>
+      <c r="CZ59" s="39"/>
+      <c r="DA59" s="39"/>
+      <c r="DB59" s="39"/>
+      <c r="DC59" s="39"/>
+      <c r="DD59" s="39"/>
     </row>
     <row r="60" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="95"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="74"/>
-      <c r="S60" s="74"/>
-      <c r="T60" s="74"/>
-      <c r="U60" s="74"/>
-      <c r="V60" s="74"/>
-      <c r="W60" s="74"/>
-      <c r="X60" s="74"/>
-      <c r="Y60" s="74"/>
-      <c r="Z60" s="74"/>
-      <c r="AA60" s="74"/>
-      <c r="AB60" s="74"/>
-      <c r="AC60" s="74"/>
-      <c r="AD60" s="74"/>
-      <c r="AE60" s="74"/>
-      <c r="AF60" s="74"/>
-      <c r="AG60" s="74"/>
-      <c r="AH60" s="74"/>
-      <c r="AI60" s="74"/>
-      <c r="AJ60" s="74"/>
-      <c r="AK60" s="74"/>
-      <c r="AL60" s="74"/>
-      <c r="AM60" s="74"/>
-      <c r="AN60" s="74"/>
-      <c r="AO60" s="74"/>
-      <c r="AP60" s="74"/>
-      <c r="AQ60" s="74"/>
-      <c r="AR60" s="74"/>
-      <c r="AS60" s="74"/>
-      <c r="AT60" s="74"/>
-      <c r="AU60" s="74"/>
-      <c r="AV60" s="74"/>
-      <c r="AW60" s="74"/>
-      <c r="AX60" s="74"/>
-      <c r="AY60" s="74"/>
-      <c r="AZ60" s="74"/>
-      <c r="BA60" s="74"/>
-      <c r="BB60" s="74"/>
-      <c r="BC60" s="74"/>
-      <c r="BD60" s="74"/>
-      <c r="BE60" s="74"/>
-      <c r="BF60" s="74"/>
-      <c r="BG60" s="74"/>
-      <c r="BH60" s="74"/>
-      <c r="BI60" s="74"/>
-      <c r="BJ60" s="74"/>
-      <c r="BK60" s="74"/>
-      <c r="BL60" s="50"/>
-      <c r="BM60" s="74"/>
-      <c r="BN60" s="74"/>
+      <c r="A60" s="93" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),TEXT(VALUE('Bảng phân công'!prevWBS)+1,"#"),TEXT(VALUE(LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B60" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="95"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97" t="str">
+        <f t="shared" ref="F60:F65" si="3">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G60" s="98"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="98" t="str">
+        <f t="shared" ref="I60:I67" si="4">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J60" s="100"/>
+      <c r="K60" s="101"/>
+      <c r="L60" s="101"/>
+      <c r="M60" s="101"/>
+      <c r="N60" s="101"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="101"/>
+      <c r="Q60" s="101"/>
+      <c r="R60" s="101"/>
+      <c r="S60" s="101"/>
+      <c r="T60" s="101"/>
+      <c r="U60" s="101"/>
+      <c r="V60" s="101"/>
+      <c r="W60" s="101"/>
+      <c r="X60" s="101"/>
+      <c r="Y60" s="101"/>
+      <c r="Z60" s="101"/>
+      <c r="AA60" s="101"/>
+      <c r="AB60" s="101"/>
+      <c r="AC60" s="101"/>
+      <c r="AD60" s="101"/>
+      <c r="AE60" s="101"/>
+      <c r="AF60" s="101"/>
+      <c r="AG60" s="101"/>
+      <c r="AH60" s="101"/>
+      <c r="AI60" s="101"/>
+      <c r="AJ60" s="101"/>
+      <c r="AK60" s="101"/>
+      <c r="AL60" s="101"/>
+      <c r="AM60" s="101"/>
+      <c r="AN60" s="101"/>
+      <c r="AO60" s="101"/>
+      <c r="AP60" s="101"/>
+      <c r="AQ60" s="101"/>
+      <c r="AR60" s="101"/>
+      <c r="AS60" s="101"/>
+      <c r="AT60" s="101"/>
+      <c r="AU60" s="101"/>
+      <c r="AV60" s="101"/>
+      <c r="AW60" s="101"/>
+      <c r="AX60" s="101"/>
+      <c r="AY60" s="101"/>
+      <c r="AZ60" s="101"/>
+      <c r="BA60" s="101"/>
+      <c r="BB60" s="101"/>
+      <c r="BC60" s="101"/>
+      <c r="BD60" s="101"/>
+      <c r="BE60" s="101"/>
+      <c r="BF60" s="101"/>
+      <c r="BG60" s="101"/>
+      <c r="BH60" s="101"/>
+      <c r="BI60" s="101"/>
+      <c r="BJ60" s="101"/>
+      <c r="BK60" s="101"/>
+      <c r="BL60" s="102"/>
+      <c r="BM60" s="101"/>
+      <c r="BN60" s="101"/>
       <c r="BO60" s="39"/>
       <c r="BP60" s="39"/>
       <c r="BQ60" s="39"/>
@@ -9171,147 +9280,151 @@
       <c r="DD60" s="39"/>
     </row>
     <row r="61" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="96" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),TEXT(VALUE('Bảng phân công'!prevWBS)+1,"#"),TEXT(VALUE(LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1))+1,"#")))</f>
+      <c r="A61" s="47" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1)))+1)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="B61" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="78"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="104">
+        <v>43129</v>
+      </c>
+      <c r="F61" s="105">
+        <f t="shared" si="3"/>
+        <v>43129</v>
+      </c>
+      <c r="G61" s="106">
         <v>1</v>
       </c>
-      <c r="B61" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100" t="str">
-        <f t="shared" ref="F61:F66" si="3">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G61" s="101"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="101" t="str">
-        <f t="shared" ref="I61:I68" si="4">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J61" s="103"/>
-      <c r="K61" s="104"/>
-      <c r="L61" s="104"/>
-      <c r="M61" s="104"/>
-      <c r="N61" s="104"/>
-      <c r="O61" s="104"/>
-      <c r="P61" s="104"/>
-      <c r="Q61" s="104"/>
-      <c r="R61" s="104"/>
-      <c r="S61" s="104"/>
-      <c r="T61" s="104"/>
-      <c r="U61" s="104"/>
-      <c r="V61" s="104"/>
-      <c r="W61" s="104"/>
-      <c r="X61" s="104"/>
-      <c r="Y61" s="104"/>
-      <c r="Z61" s="104"/>
-      <c r="AA61" s="104"/>
-      <c r="AB61" s="104"/>
-      <c r="AC61" s="104"/>
-      <c r="AD61" s="104"/>
-      <c r="AE61" s="104"/>
-      <c r="AF61" s="104"/>
-      <c r="AG61" s="104"/>
-      <c r="AH61" s="104"/>
-      <c r="AI61" s="104"/>
-      <c r="AJ61" s="104"/>
-      <c r="AK61" s="104"/>
-      <c r="AL61" s="104"/>
-      <c r="AM61" s="104"/>
-      <c r="AN61" s="104"/>
-      <c r="AO61" s="104"/>
-      <c r="AP61" s="104"/>
-      <c r="AQ61" s="104"/>
-      <c r="AR61" s="104"/>
-      <c r="AS61" s="104"/>
-      <c r="AT61" s="104"/>
-      <c r="AU61" s="104"/>
-      <c r="AV61" s="104"/>
-      <c r="AW61" s="104"/>
-      <c r="AX61" s="104"/>
-      <c r="AY61" s="104"/>
-      <c r="AZ61" s="104"/>
-      <c r="BA61" s="104"/>
-      <c r="BB61" s="104"/>
-      <c r="BC61" s="104"/>
-      <c r="BD61" s="104"/>
-      <c r="BE61" s="104"/>
-      <c r="BF61" s="104"/>
-      <c r="BG61" s="104"/>
-      <c r="BH61" s="104"/>
-      <c r="BI61" s="104"/>
-      <c r="BJ61" s="104"/>
-      <c r="BK61" s="104"/>
-      <c r="BL61" s="105"/>
-      <c r="BM61" s="104"/>
-      <c r="BN61" s="104"/>
-      <c r="BO61" s="39"/>
-      <c r="BP61" s="39"/>
-      <c r="BQ61" s="39"/>
-      <c r="BR61" s="39"/>
-      <c r="BS61" s="39"/>
-      <c r="BT61" s="39"/>
-      <c r="BU61" s="39"/>
-      <c r="BV61" s="39"/>
-      <c r="BW61" s="39"/>
-      <c r="BX61" s="39"/>
-      <c r="BY61" s="39"/>
-      <c r="BZ61" s="39"/>
-      <c r="CA61" s="39"/>
-      <c r="CB61" s="39"/>
-      <c r="CC61" s="39"/>
-      <c r="CD61" s="39"/>
-      <c r="CE61" s="39"/>
-      <c r="CF61" s="39"/>
-      <c r="CG61" s="39"/>
-      <c r="CH61" s="39"/>
-      <c r="CI61" s="39"/>
-      <c r="CJ61" s="39"/>
-      <c r="CK61" s="39"/>
-      <c r="CL61" s="39"/>
-      <c r="CM61" s="39"/>
-      <c r="CN61" s="39"/>
-      <c r="CO61" s="39"/>
-      <c r="CP61" s="39"/>
-      <c r="CQ61" s="39"/>
-      <c r="CR61" s="39"/>
-      <c r="CS61" s="39"/>
-      <c r="CT61" s="39"/>
-      <c r="CU61" s="39"/>
-      <c r="CV61" s="39"/>
-      <c r="CW61" s="39"/>
-      <c r="CX61" s="39"/>
-      <c r="CY61" s="39"/>
-      <c r="CZ61" s="39"/>
-      <c r="DA61" s="39"/>
-      <c r="DB61" s="39"/>
-      <c r="DC61" s="39"/>
-      <c r="DD61" s="39"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
+      <c r="AC61" s="47"/>
+      <c r="AD61" s="47"/>
+      <c r="AE61" s="47"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="47"/>
+      <c r="AH61" s="47"/>
+      <c r="AI61" s="47"/>
+      <c r="AJ61" s="47"/>
+      <c r="AK61" s="47"/>
+      <c r="AL61" s="47"/>
+      <c r="AM61" s="47"/>
+      <c r="AN61" s="47"/>
+      <c r="AO61" s="47"/>
+      <c r="AP61" s="47"/>
+      <c r="AQ61" s="47"/>
+      <c r="AR61" s="47"/>
+      <c r="AS61" s="47"/>
+      <c r="AT61" s="47"/>
+      <c r="AU61" s="47"/>
+      <c r="AV61" s="47"/>
+      <c r="AW61" s="47"/>
+      <c r="AX61" s="47"/>
+      <c r="AY61" s="47"/>
+      <c r="AZ61" s="47"/>
+      <c r="BA61" s="47"/>
+      <c r="BB61" s="47"/>
+      <c r="BC61" s="47"/>
+      <c r="BD61" s="47"/>
+      <c r="BE61" s="47"/>
+      <c r="BF61" s="47"/>
+      <c r="BG61" s="47"/>
+      <c r="BH61" s="47"/>
+      <c r="BI61" s="47"/>
+      <c r="BJ61" s="47"/>
+      <c r="BK61" s="47"/>
+      <c r="BL61" s="50"/>
+      <c r="BM61" s="47"/>
+      <c r="BN61" s="47"/>
+      <c r="BO61" s="49"/>
+      <c r="BP61" s="49"/>
+      <c r="BQ61" s="49"/>
+      <c r="BR61" s="49"/>
+      <c r="BS61" s="49"/>
+      <c r="BT61" s="49"/>
+      <c r="BU61" s="49"/>
+      <c r="BV61" s="49"/>
+      <c r="BW61" s="49"/>
+      <c r="BX61" s="49"/>
+      <c r="BY61" s="49"/>
+      <c r="BZ61" s="49"/>
+      <c r="CA61" s="49"/>
+      <c r="CB61" s="49"/>
+      <c r="CC61" s="49"/>
+      <c r="CD61" s="49"/>
+      <c r="CE61" s="49"/>
+      <c r="CF61" s="49"/>
+      <c r="CG61" s="49"/>
+      <c r="CH61" s="49"/>
+      <c r="CI61" s="49"/>
+      <c r="CJ61" s="49"/>
+      <c r="CK61" s="49"/>
+      <c r="CL61" s="49"/>
+      <c r="CM61" s="49"/>
+      <c r="CN61" s="49"/>
+      <c r="CO61" s="49"/>
+      <c r="CP61" s="49"/>
+      <c r="CQ61" s="49"/>
+      <c r="CR61" s="49"/>
+      <c r="CS61" s="49"/>
+      <c r="CT61" s="49"/>
+      <c r="CU61" s="49"/>
+      <c r="CV61" s="49"/>
+      <c r="CW61" s="49"/>
+      <c r="CX61" s="49"/>
+      <c r="CY61" s="49"/>
+      <c r="CZ61" s="49"/>
+      <c r="DA61" s="49"/>
+      <c r="DB61" s="49"/>
+      <c r="DC61" s="49"/>
+      <c r="DD61" s="49"/>
     </row>
     <row r="62" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="47" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="B62" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="80"/>
+      <c r="B62" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="78"/>
       <c r="D62" s="42"/>
-      <c r="E62" s="107">
-        <v>43129</v>
-      </c>
-      <c r="F62" s="108">
+      <c r="E62" s="104">
+        <v>43130</v>
+      </c>
+      <c r="F62" s="105">
         <f t="shared" si="3"/>
-        <v>43129</v>
-      </c>
-      <c r="G62" s="109">
+        <v>43130</v>
+      </c>
+      <c r="G62" s="106">
         <v>1</v>
       </c>
-      <c r="H62" s="110"/>
+      <c r="H62" s="107"/>
       <c r="I62" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -9421,22 +9534,22 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="B63" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="80"/>
+      <c r="B63" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="78"/>
       <c r="D63" s="42"/>
-      <c r="E63" s="107">
-        <v>43130</v>
-      </c>
-      <c r="F63" s="108">
+      <c r="E63" s="104">
+        <v>43131</v>
+      </c>
+      <c r="F63" s="105">
         <f t="shared" si="3"/>
-        <v>43130</v>
-      </c>
-      <c r="G63" s="109">
+        <v>43131</v>
+      </c>
+      <c r="G63" s="106">
         <v>1</v>
       </c>
-      <c r="H63" s="110"/>
+      <c r="H63" s="107"/>
       <c r="I63" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -9546,22 +9659,22 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="B64" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="80"/>
+      <c r="B64" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="78"/>
       <c r="D64" s="42"/>
-      <c r="E64" s="107">
-        <v>43131</v>
-      </c>
-      <c r="F64" s="108">
+      <c r="E64" s="104">
+        <v>43132</v>
+      </c>
+      <c r="F64" s="105">
         <f t="shared" si="3"/>
-        <v>43131</v>
-      </c>
-      <c r="G64" s="109">
+        <v>43132</v>
+      </c>
+      <c r="G64" s="106">
         <v>1</v>
       </c>
-      <c r="H64" s="110"/>
+      <c r="H64" s="107"/>
       <c r="I64" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -9671,22 +9784,22 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1)))+1)))</f>
         <v>0.1</v>
       </c>
-      <c r="B65" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="80"/>
+      <c r="B65" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="78"/>
       <c r="D65" s="42"/>
-      <c r="E65" s="107">
-        <v>43132</v>
-      </c>
-      <c r="F65" s="108">
+      <c r="E65" s="104">
+        <v>43133</v>
+      </c>
+      <c r="F65" s="105">
         <f t="shared" si="3"/>
-        <v>43132</v>
-      </c>
-      <c r="G65" s="109">
+        <v>43133</v>
+      </c>
+      <c r="G65" s="106">
         <v>1</v>
       </c>
-      <c r="H65" s="110"/>
+      <c r="H65" s="107"/>
       <c r="I65" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -9792,31 +9905,19 @@
       <c r="DD65" s="49"/>
     </row>
     <row r="66" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="B66" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="107">
-        <v>43133</v>
-      </c>
-      <c r="F66" s="108">
-        <f t="shared" si="3"/>
-        <v>43133</v>
-      </c>
-      <c r="G66" s="109">
-        <v>1</v>
-      </c>
-      <c r="H66" s="110"/>
-      <c r="I66" s="45">
+      <c r="A66" s="47"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="111" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J66" s="46"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J66" s="113"/>
       <c r="K66" s="47"/>
       <c r="L66" s="47"/>
       <c r="M66" s="47"/>
@@ -9918,18 +10019,18 @@
     </row>
     <row r="67" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="47"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="115"/>
-      <c r="I67" s="114" t="str">
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="111" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J67" s="116"/>
+      <c r="J67" s="113"/>
       <c r="K67" s="47"/>
       <c r="L67" s="47"/>
       <c r="M67" s="47"/>
@@ -10030,19 +10131,18 @@
       <c r="DD67" s="49"/>
     </row>
     <row r="68" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="111"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="113"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="114" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J68" s="116"/>
+      <c r="A68" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="115"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="118"/>
+      <c r="J68" s="119"/>
       <c r="K68" s="47"/>
       <c r="L68" s="47"/>
       <c r="M68" s="47"/>
@@ -10143,18 +10243,18 @@
       <c r="DD68" s="49"/>
     </row>
     <row r="69" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="117" t="s">
+      <c r="A69" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="118"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="119"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="120"/>
+      <c r="B69" s="121"/>
+      <c r="C69" s="121"/>
+      <c r="D69" s="121"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="122"/>
       <c r="G69" s="121"/>
       <c r="H69" s="121"/>
       <c r="I69" s="121"/>
-      <c r="J69" s="122"/>
+      <c r="J69" s="119"/>
       <c r="K69" s="47"/>
       <c r="L69" s="47"/>
       <c r="M69" s="47"/>
@@ -10255,18 +10355,27 @@
       <c r="DD69" s="49"/>
     </row>
     <row r="70" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="123" t="s">
+      <c r="A70" s="123" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),TEXT(VALUE('Bảng phân công'!prevWBS)+1,"#"),TEXT(VALUE(LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B70" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="124"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="125"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="122"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="105" t="str">
+        <f t="shared" ref="F70:F73" si="5">IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G70" s="106"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="45" t="str">
+        <f t="shared" ref="I70:I73" si="6">IF(OR(F70=0,E70=0)," - ",NETWORKDAYS(E70,F70))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J70" s="46"/>
       <c r="K70" s="47"/>
       <c r="L70" s="47"/>
       <c r="M70" s="47"/>
@@ -10367,24 +10476,24 @@
       <c r="DD70" s="49"/>
     </row>
     <row r="71" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="126" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),TEXT(VALUE('Bảng phân công'!prevWBS)+1,"#"),TEXT(VALUE(LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B71" s="127" t="s">
+      <c r="A71" s="47" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1)))+1)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="B71" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="128"/>
+      <c r="C71" s="126"/>
       <c r="D71" s="42"/>
-      <c r="E71" s="107"/>
-      <c r="F71" s="108" t="str">
-        <f t="shared" ref="F71:F74" si="5">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
+      <c r="E71" s="104"/>
+      <c r="F71" s="105" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G71" s="109"/>
-      <c r="H71" s="110"/>
+      <c r="G71" s="106"/>
+      <c r="H71" s="107"/>
       <c r="I71" s="45" t="str">
-        <f t="shared" ref="I71:I74" si="6">IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J71" s="46"/>
@@ -10489,21 +10598,21 @@
     </row>
     <row r="72" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="B72" s="129" t="s">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-1)))+1)))</f>
+        <v>0.0.1</v>
+      </c>
+      <c r="B72" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="129"/>
+      <c r="C72" s="126"/>
       <c r="D72" s="42"/>
-      <c r="E72" s="107"/>
-      <c r="F72" s="108" t="str">
+      <c r="E72" s="104"/>
+      <c r="F72" s="105" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G72" s="109"/>
-      <c r="H72" s="110"/>
+      <c r="G72" s="106"/>
+      <c r="H72" s="107"/>
       <c r="I72" s="45" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
@@ -10610,21 +10719,21 @@
     </row>
     <row r="73" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",2))-1)))+1)))</f>
-        <v>0.0.1</v>
-      </c>
-      <c r="B73" s="130" t="s">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",4))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",4))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))-1)))+1)))</f>
+        <v>0.0.0.1</v>
+      </c>
+      <c r="B73" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="129"/>
+      <c r="C73" s="126"/>
       <c r="D73" s="42"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="108" t="str">
+      <c r="E73" s="104"/>
+      <c r="F73" s="105" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G73" s="109"/>
-      <c r="H73" s="110"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="107"/>
       <c r="I73" s="45" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
@@ -10683,7 +10792,6 @@
       <c r="BI73" s="47"/>
       <c r="BJ73" s="47"/>
       <c r="BK73" s="47"/>
-      <c r="BL73" s="50"/>
       <c r="BM73" s="47"/>
       <c r="BN73" s="47"/>
       <c r="BO73" s="49"/>
@@ -10730,130 +10838,120 @@
       <c r="DD73" s="49"/>
     </row>
     <row r="74" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE('Bảng phân công'!prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))),'Bảng phân công'!prevWBS&amp;".1",LEFT('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",4))),VALUE(RIGHT('Bảng phân công'!prevWBS,LEN('Bảng phân công'!prevWBS)-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))))+1,VALUE(MID('Bảng phân công'!prevWBS,FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",4))-FIND("`",SUBSTITUTE('Bảng phân công'!prevWBS,".","`",3))-1)))+1)))</f>
-        <v>0.0.0.1</v>
-      </c>
-      <c r="B74" s="130" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="129"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="108" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G74" s="109"/>
-      <c r="H74" s="110"/>
-      <c r="I74" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J74" s="46"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="47"/>
-      <c r="S74" s="47"/>
-      <c r="T74" s="47"/>
-      <c r="U74" s="47"/>
-      <c r="V74" s="47"/>
-      <c r="W74" s="47"/>
-      <c r="X74" s="47"/>
-      <c r="Y74" s="47"/>
-      <c r="Z74" s="47"/>
-      <c r="AA74" s="47"/>
-      <c r="AB74" s="47"/>
-      <c r="AC74" s="47"/>
-      <c r="AD74" s="47"/>
-      <c r="AE74" s="47"/>
-      <c r="AF74" s="47"/>
-      <c r="AG74" s="47"/>
-      <c r="AH74" s="47"/>
-      <c r="AI74" s="47"/>
-      <c r="AJ74" s="47"/>
-      <c r="AK74" s="47"/>
-      <c r="AL74" s="47"/>
-      <c r="AM74" s="47"/>
-      <c r="AN74" s="47"/>
-      <c r="AO74" s="47"/>
-      <c r="AP74" s="47"/>
-      <c r="AQ74" s="47"/>
-      <c r="AR74" s="47"/>
-      <c r="AS74" s="47"/>
-      <c r="AT74" s="47"/>
-      <c r="AU74" s="47"/>
-      <c r="AV74" s="47"/>
-      <c r="AW74" s="47"/>
-      <c r="AX74" s="47"/>
-      <c r="AY74" s="47"/>
-      <c r="AZ74" s="47"/>
-      <c r="BA74" s="47"/>
-      <c r="BB74" s="47"/>
-      <c r="BC74" s="47"/>
-      <c r="BD74" s="47"/>
-      <c r="BE74" s="47"/>
-      <c r="BF74" s="47"/>
-      <c r="BG74" s="47"/>
-      <c r="BH74" s="47"/>
-      <c r="BI74" s="47"/>
-      <c r="BJ74" s="47"/>
-      <c r="BK74" s="47"/>
-      <c r="BM74" s="47"/>
-      <c r="BN74" s="47"/>
-      <c r="BO74" s="49"/>
-      <c r="BP74" s="49"/>
-      <c r="BQ74" s="49"/>
-      <c r="BR74" s="49"/>
-      <c r="BS74" s="49"/>
-      <c r="BT74" s="49"/>
-      <c r="BU74" s="49"/>
-      <c r="BV74" s="49"/>
-      <c r="BW74" s="49"/>
-      <c r="BX74" s="49"/>
-      <c r="BY74" s="49"/>
-      <c r="BZ74" s="49"/>
-      <c r="CA74" s="49"/>
-      <c r="CB74" s="49"/>
-      <c r="CC74" s="49"/>
-      <c r="CD74" s="49"/>
-      <c r="CE74" s="49"/>
-      <c r="CF74" s="49"/>
-      <c r="CG74" s="49"/>
-      <c r="CH74" s="49"/>
-      <c r="CI74" s="49"/>
-      <c r="CJ74" s="49"/>
-      <c r="CK74" s="49"/>
-      <c r="CL74" s="49"/>
-      <c r="CM74" s="49"/>
-      <c r="CN74" s="49"/>
-      <c r="CO74" s="49"/>
-      <c r="CP74" s="49"/>
-      <c r="CQ74" s="49"/>
-      <c r="CR74" s="49"/>
-      <c r="CS74" s="49"/>
-      <c r="CT74" s="49"/>
-      <c r="CU74" s="49"/>
-      <c r="CV74" s="49"/>
-      <c r="CW74" s="49"/>
-      <c r="CX74" s="49"/>
-      <c r="CY74" s="49"/>
-      <c r="CZ74" s="49"/>
-      <c r="DA74" s="49"/>
-      <c r="DB74" s="49"/>
-      <c r="DC74" s="49"/>
-      <c r="DD74" s="49"/>
-    </row>
-    <row r="75" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="131" t="str">
+      <c r="A74" s="128" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="3"/>
+      <c r="AK74" s="3"/>
+      <c r="AL74" s="3"/>
+      <c r="AM74" s="3"/>
+      <c r="AN74" s="3"/>
+      <c r="AO74" s="3"/>
+      <c r="AP74" s="3"/>
+      <c r="AQ74" s="3"/>
+      <c r="AR74" s="3"/>
+      <c r="AS74" s="3"/>
+      <c r="AT74" s="3"/>
+      <c r="AU74" s="3"/>
+      <c r="AV74" s="3"/>
+      <c r="AW74" s="3"/>
+      <c r="AX74" s="3"/>
+      <c r="AY74" s="3"/>
+      <c r="AZ74" s="3"/>
+      <c r="BA74" s="3"/>
+      <c r="BB74" s="3"/>
+      <c r="BC74" s="3"/>
+      <c r="BD74" s="3"/>
+      <c r="BE74" s="3"/>
+      <c r="BF74" s="3"/>
+      <c r="BG74" s="3"/>
+      <c r="BH74" s="3"/>
+      <c r="BI74" s="3"/>
+      <c r="BJ74" s="3"/>
+      <c r="BK74" s="3"/>
+      <c r="BL74" s="5"/>
+      <c r="BM74" s="3"/>
+      <c r="BN74" s="3"/>
+      <c r="BO74" s="3"/>
+      <c r="BP74" s="3"/>
+      <c r="BQ74" s="3"/>
+      <c r="BR74" s="3"/>
+      <c r="BS74" s="3"/>
+      <c r="BT74" s="3"/>
+      <c r="BU74" s="3"/>
+      <c r="BV74" s="3"/>
+      <c r="BW74" s="3"/>
+      <c r="BX74" s="3"/>
+      <c r="BY74" s="3"/>
+      <c r="BZ74" s="3"/>
+      <c r="CA74" s="3"/>
+      <c r="CB74" s="3"/>
+      <c r="CC74" s="3"/>
+      <c r="CD74" s="3"/>
+      <c r="CE74" s="3"/>
+      <c r="CF74" s="3"/>
+      <c r="CG74" s="3"/>
+      <c r="CH74" s="3"/>
+      <c r="CI74" s="3"/>
+      <c r="CJ74" s="3"/>
+      <c r="CK74" s="3"/>
+      <c r="CL74" s="3"/>
+      <c r="CM74" s="3"/>
+      <c r="CN74" s="3"/>
+      <c r="CO74" s="3"/>
+      <c r="CP74" s="3"/>
+      <c r="CQ74" s="3"/>
+      <c r="CR74" s="3"/>
+      <c r="CS74" s="3"/>
+      <c r="CT74" s="3"/>
+      <c r="CU74" s="3"/>
+      <c r="CV74" s="3"/>
+      <c r="CW74" s="3"/>
+      <c r="CX74" s="3"/>
+      <c r="CY74" s="3"/>
+      <c r="CZ74" s="3"/>
+      <c r="DA74" s="3"/>
+      <c r="DB74" s="3"/>
+      <c r="DC74" s="3"/>
+      <c r="DD74" s="3"/>
+    </row>
+    <row r="75" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -32852,2383 +32950,2273 @@
       <c r="DC274" s="3"/>
       <c r="DD274" s="3"/>
     </row>
-    <row r="275" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
-      <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
-      <c r="L275" s="3"/>
-      <c r="M275" s="3"/>
-      <c r="N275" s="3"/>
-      <c r="O275" s="3"/>
-      <c r="P275" s="3"/>
-      <c r="Q275" s="3"/>
-      <c r="R275" s="3"/>
-      <c r="S275" s="3"/>
-      <c r="T275" s="3"/>
-      <c r="U275" s="3"/>
-      <c r="V275" s="3"/>
-      <c r="W275" s="3"/>
-      <c r="X275" s="3"/>
-      <c r="Y275" s="3"/>
-      <c r="Z275" s="3"/>
-      <c r="AA275" s="3"/>
-      <c r="AB275" s="3"/>
-      <c r="AC275" s="3"/>
-      <c r="AD275" s="3"/>
-      <c r="AE275" s="3"/>
-      <c r="AF275" s="3"/>
-      <c r="AG275" s="3"/>
-      <c r="AH275" s="3"/>
-      <c r="AI275" s="3"/>
-      <c r="AJ275" s="3"/>
-      <c r="AK275" s="3"/>
-      <c r="AL275" s="3"/>
-      <c r="AM275" s="3"/>
-      <c r="AN275" s="3"/>
-      <c r="AO275" s="3"/>
-      <c r="AP275" s="3"/>
-      <c r="AQ275" s="3"/>
-      <c r="AR275" s="3"/>
-      <c r="AS275" s="3"/>
-      <c r="AT275" s="3"/>
-      <c r="AU275" s="3"/>
-      <c r="AV275" s="3"/>
-      <c r="AW275" s="3"/>
-      <c r="AX275" s="3"/>
-      <c r="AY275" s="3"/>
-      <c r="AZ275" s="3"/>
-      <c r="BA275" s="3"/>
-      <c r="BB275" s="3"/>
-      <c r="BC275" s="3"/>
-      <c r="BD275" s="3"/>
-      <c r="BE275" s="3"/>
-      <c r="BF275" s="3"/>
-      <c r="BG275" s="3"/>
-      <c r="BH275" s="3"/>
-      <c r="BI275" s="3"/>
-      <c r="BJ275" s="3"/>
-      <c r="BK275" s="3"/>
-      <c r="BL275" s="5"/>
-      <c r="BM275" s="3"/>
-      <c r="BN275" s="3"/>
-      <c r="BO275" s="3"/>
-      <c r="BP275" s="3"/>
-      <c r="BQ275" s="3"/>
-      <c r="BR275" s="3"/>
-      <c r="BS275" s="3"/>
-      <c r="BT275" s="3"/>
-      <c r="BU275" s="3"/>
-      <c r="BV275" s="3"/>
-      <c r="BW275" s="3"/>
-      <c r="BX275" s="3"/>
-      <c r="BY275" s="3"/>
-      <c r="BZ275" s="3"/>
-      <c r="CA275" s="3"/>
-      <c r="CB275" s="3"/>
-      <c r="CC275" s="3"/>
-      <c r="CD275" s="3"/>
-      <c r="CE275" s="3"/>
-      <c r="CF275" s="3"/>
-      <c r="CG275" s="3"/>
-      <c r="CH275" s="3"/>
-      <c r="CI275" s="3"/>
-      <c r="CJ275" s="3"/>
-      <c r="CK275" s="3"/>
-      <c r="CL275" s="3"/>
-      <c r="CM275" s="3"/>
-      <c r="CN275" s="3"/>
-      <c r="CO275" s="3"/>
-      <c r="CP275" s="3"/>
-      <c r="CQ275" s="3"/>
-      <c r="CR275" s="3"/>
-      <c r="CS275" s="3"/>
-      <c r="CT275" s="3"/>
-      <c r="CU275" s="3"/>
-      <c r="CV275" s="3"/>
-      <c r="CW275" s="3"/>
-      <c r="CX275" s="3"/>
-      <c r="CY275" s="3"/>
-      <c r="CZ275" s="3"/>
-      <c r="DA275" s="3"/>
-      <c r="DB275" s="3"/>
-      <c r="DC275" s="3"/>
-      <c r="DD275" s="3"/>
+    <row r="275" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="BL275" s="129"/>
     </row>
     <row r="276" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL276" s="132"/>
+      <c r="BL276" s="129"/>
     </row>
     <row r="277" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL277" s="132"/>
+      <c r="BL277" s="129"/>
     </row>
     <row r="278" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL278" s="132"/>
+      <c r="BL278" s="129"/>
     </row>
     <row r="279" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL279" s="132"/>
+      <c r="BL279" s="129"/>
     </row>
     <row r="280" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL280" s="132"/>
+      <c r="BL280" s="129"/>
     </row>
     <row r="281" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL281" s="132"/>
+      <c r="BL281" s="129"/>
     </row>
     <row r="282" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL282" s="132"/>
+      <c r="BL282" s="129"/>
     </row>
     <row r="283" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL283" s="132"/>
+      <c r="BL283" s="129"/>
     </row>
     <row r="284" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL284" s="132"/>
+      <c r="BL284" s="129"/>
     </row>
     <row r="285" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL285" s="132"/>
+      <c r="BL285" s="129"/>
     </row>
     <row r="286" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL286" s="132"/>
+      <c r="BL286" s="129"/>
     </row>
     <row r="287" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL287" s="132"/>
+      <c r="BL287" s="129"/>
     </row>
     <row r="288" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL288" s="132"/>
+      <c r="BL288" s="129"/>
     </row>
     <row r="289" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL289" s="132"/>
+      <c r="BL289" s="129"/>
     </row>
     <row r="290" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL290" s="132"/>
+      <c r="BL290" s="129"/>
     </row>
     <row r="291" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL291" s="132"/>
+      <c r="BL291" s="129"/>
     </row>
     <row r="292" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL292" s="132"/>
+      <c r="BL292" s="129"/>
     </row>
     <row r="293" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL293" s="132"/>
+      <c r="BL293" s="129"/>
     </row>
     <row r="294" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL294" s="132"/>
+      <c r="BL294" s="129"/>
     </row>
     <row r="295" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL295" s="132"/>
+      <c r="BL295" s="129"/>
     </row>
     <row r="296" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL296" s="132"/>
+      <c r="BL296" s="129"/>
     </row>
     <row r="297" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL297" s="132"/>
+      <c r="BL297" s="129"/>
     </row>
     <row r="298" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL298" s="132"/>
+      <c r="BL298" s="129"/>
     </row>
     <row r="299" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL299" s="132"/>
+      <c r="BL299" s="129"/>
     </row>
     <row r="300" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL300" s="132"/>
+      <c r="BL300" s="129"/>
     </row>
     <row r="301" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL301" s="132"/>
+      <c r="BL301" s="129"/>
     </row>
     <row r="302" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL302" s="132"/>
+      <c r="BL302" s="129"/>
     </row>
     <row r="303" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL303" s="132"/>
+      <c r="BL303" s="129"/>
     </row>
     <row r="304" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL304" s="132"/>
+      <c r="BL304" s="129"/>
     </row>
     <row r="305" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL305" s="132"/>
+      <c r="BL305" s="129"/>
     </row>
     <row r="306" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL306" s="132"/>
+      <c r="BL306" s="129"/>
     </row>
     <row r="307" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL307" s="132"/>
+      <c r="BL307" s="129"/>
     </row>
     <row r="308" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL308" s="132"/>
+      <c r="BL308" s="129"/>
     </row>
     <row r="309" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL309" s="132"/>
+      <c r="BL309" s="129"/>
     </row>
     <row r="310" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL310" s="132"/>
+      <c r="BL310" s="129"/>
     </row>
     <row r="311" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL311" s="132"/>
+      <c r="BL311" s="129"/>
     </row>
     <row r="312" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL312" s="132"/>
+      <c r="BL312" s="129"/>
     </row>
     <row r="313" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL313" s="132"/>
+      <c r="BL313" s="129"/>
     </row>
     <row r="314" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL314" s="132"/>
+      <c r="BL314" s="129"/>
     </row>
     <row r="315" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL315" s="132"/>
+      <c r="BL315" s="129"/>
     </row>
     <row r="316" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL316" s="132"/>
+      <c r="BL316" s="129"/>
     </row>
     <row r="317" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL317" s="132"/>
+      <c r="BL317" s="129"/>
     </row>
     <row r="318" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL318" s="132"/>
+      <c r="BL318" s="129"/>
     </row>
     <row r="319" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL319" s="132"/>
+      <c r="BL319" s="129"/>
     </row>
     <row r="320" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL320" s="132"/>
+      <c r="BL320" s="129"/>
     </row>
     <row r="321" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL321" s="132"/>
+      <c r="BL321" s="129"/>
     </row>
     <row r="322" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL322" s="132"/>
+      <c r="BL322" s="129"/>
     </row>
     <row r="323" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL323" s="132"/>
+      <c r="BL323" s="129"/>
     </row>
     <row r="324" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL324" s="132"/>
+      <c r="BL324" s="129"/>
     </row>
     <row r="325" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL325" s="132"/>
+      <c r="BL325" s="129"/>
     </row>
     <row r="326" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL326" s="132"/>
+      <c r="BL326" s="129"/>
     </row>
     <row r="327" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL327" s="132"/>
+      <c r="BL327" s="129"/>
     </row>
     <row r="328" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL328" s="132"/>
+      <c r="BL328" s="129"/>
     </row>
     <row r="329" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL329" s="132"/>
+      <c r="BL329" s="129"/>
     </row>
     <row r="330" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL330" s="132"/>
+      <c r="BL330" s="129"/>
     </row>
     <row r="331" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL331" s="132"/>
+      <c r="BL331" s="129"/>
     </row>
     <row r="332" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL332" s="132"/>
+      <c r="BL332" s="129"/>
     </row>
     <row r="333" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL333" s="132"/>
+      <c r="BL333" s="129"/>
     </row>
     <row r="334" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL334" s="132"/>
+      <c r="BL334" s="129"/>
     </row>
     <row r="335" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL335" s="132"/>
+      <c r="BL335" s="129"/>
     </row>
     <row r="336" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL336" s="132"/>
+      <c r="BL336" s="129"/>
     </row>
     <row r="337" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL337" s="132"/>
+      <c r="BL337" s="129"/>
     </row>
     <row r="338" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL338" s="132"/>
+      <c r="BL338" s="129"/>
     </row>
     <row r="339" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL339" s="132"/>
+      <c r="BL339" s="129"/>
     </row>
     <row r="340" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL340" s="132"/>
+      <c r="BL340" s="129"/>
     </row>
     <row r="341" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL341" s="132"/>
+      <c r="BL341" s="129"/>
     </row>
     <row r="342" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL342" s="132"/>
+      <c r="BL342" s="129"/>
     </row>
     <row r="343" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL343" s="132"/>
+      <c r="BL343" s="129"/>
     </row>
     <row r="344" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL344" s="132"/>
+      <c r="BL344" s="129"/>
     </row>
     <row r="345" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL345" s="132"/>
+      <c r="BL345" s="129"/>
     </row>
     <row r="346" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL346" s="132"/>
+      <c r="BL346" s="129"/>
     </row>
     <row r="347" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL347" s="132"/>
+      <c r="BL347" s="129"/>
     </row>
     <row r="348" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL348" s="132"/>
+      <c r="BL348" s="129"/>
     </row>
     <row r="349" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL349" s="132"/>
+      <c r="BL349" s="129"/>
     </row>
     <row r="350" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL350" s="132"/>
+      <c r="BL350" s="129"/>
     </row>
     <row r="351" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL351" s="132"/>
+      <c r="BL351" s="129"/>
     </row>
     <row r="352" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL352" s="132"/>
+      <c r="BL352" s="129"/>
     </row>
     <row r="353" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL353" s="132"/>
+      <c r="BL353" s="129"/>
     </row>
     <row r="354" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL354" s="132"/>
+      <c r="BL354" s="129"/>
     </row>
     <row r="355" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL355" s="132"/>
+      <c r="BL355" s="129"/>
     </row>
     <row r="356" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL356" s="132"/>
+      <c r="BL356" s="129"/>
     </row>
     <row r="357" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL357" s="132"/>
+      <c r="BL357" s="129"/>
     </row>
     <row r="358" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL358" s="132"/>
+      <c r="BL358" s="129"/>
     </row>
     <row r="359" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL359" s="132"/>
+      <c r="BL359" s="129"/>
     </row>
     <row r="360" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL360" s="132"/>
+      <c r="BL360" s="129"/>
     </row>
     <row r="361" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL361" s="132"/>
+      <c r="BL361" s="129"/>
     </row>
     <row r="362" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL362" s="132"/>
+      <c r="BL362" s="129"/>
     </row>
     <row r="363" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL363" s="132"/>
+      <c r="BL363" s="129"/>
     </row>
     <row r="364" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL364" s="132"/>
+      <c r="BL364" s="129"/>
     </row>
     <row r="365" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL365" s="132"/>
+      <c r="BL365" s="129"/>
     </row>
     <row r="366" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL366" s="132"/>
+      <c r="BL366" s="129"/>
     </row>
     <row r="367" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL367" s="132"/>
+      <c r="BL367" s="129"/>
     </row>
     <row r="368" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL368" s="132"/>
+      <c r="BL368" s="129"/>
     </row>
     <row r="369" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL369" s="132"/>
+      <c r="BL369" s="129"/>
     </row>
     <row r="370" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL370" s="132"/>
+      <c r="BL370" s="129"/>
     </row>
     <row r="371" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL371" s="132"/>
+      <c r="BL371" s="129"/>
     </row>
     <row r="372" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL372" s="132"/>
+      <c r="BL372" s="129"/>
     </row>
     <row r="373" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL373" s="132"/>
+      <c r="BL373" s="129"/>
     </row>
     <row r="374" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL374" s="132"/>
+      <c r="BL374" s="129"/>
     </row>
     <row r="375" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL375" s="132"/>
+      <c r="BL375" s="129"/>
     </row>
     <row r="376" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL376" s="132"/>
+      <c r="BL376" s="129"/>
     </row>
     <row r="377" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL377" s="132"/>
+      <c r="BL377" s="129"/>
     </row>
     <row r="378" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL378" s="132"/>
+      <c r="BL378" s="129"/>
     </row>
     <row r="379" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL379" s="132"/>
+      <c r="BL379" s="129"/>
     </row>
     <row r="380" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL380" s="132"/>
+      <c r="BL380" s="129"/>
     </row>
     <row r="381" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL381" s="132"/>
+      <c r="BL381" s="129"/>
     </row>
     <row r="382" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL382" s="132"/>
+      <c r="BL382" s="129"/>
     </row>
     <row r="383" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL383" s="132"/>
+      <c r="BL383" s="129"/>
     </row>
     <row r="384" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL384" s="132"/>
+      <c r="BL384" s="129"/>
     </row>
     <row r="385" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL385" s="132"/>
+      <c r="BL385" s="129"/>
     </row>
     <row r="386" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL386" s="132"/>
+      <c r="BL386" s="129"/>
     </row>
     <row r="387" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL387" s="132"/>
+      <c r="BL387" s="129"/>
     </row>
     <row r="388" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL388" s="132"/>
+      <c r="BL388" s="129"/>
     </row>
     <row r="389" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL389" s="132"/>
+      <c r="BL389" s="129"/>
     </row>
     <row r="390" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL390" s="132"/>
+      <c r="BL390" s="129"/>
     </row>
     <row r="391" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL391" s="132"/>
+      <c r="BL391" s="129"/>
     </row>
     <row r="392" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL392" s="132"/>
+      <c r="BL392" s="129"/>
     </row>
     <row r="393" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL393" s="132"/>
+      <c r="BL393" s="129"/>
     </row>
     <row r="394" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL394" s="132"/>
+      <c r="BL394" s="129"/>
     </row>
     <row r="395" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL395" s="132"/>
+      <c r="BL395" s="129"/>
     </row>
     <row r="396" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL396" s="132"/>
+      <c r="BL396" s="129"/>
     </row>
     <row r="397" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL397" s="132"/>
+      <c r="BL397" s="129"/>
     </row>
     <row r="398" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL398" s="132"/>
+      <c r="BL398" s="129"/>
     </row>
     <row r="399" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL399" s="132"/>
+      <c r="BL399" s="129"/>
     </row>
     <row r="400" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL400" s="132"/>
+      <c r="BL400" s="129"/>
     </row>
     <row r="401" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL401" s="132"/>
+      <c r="BL401" s="129"/>
     </row>
     <row r="402" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL402" s="132"/>
+      <c r="BL402" s="129"/>
     </row>
     <row r="403" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL403" s="132"/>
+      <c r="BL403" s="129"/>
     </row>
     <row r="404" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL404" s="132"/>
+      <c r="BL404" s="129"/>
     </row>
     <row r="405" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL405" s="132"/>
+      <c r="BL405" s="129"/>
     </row>
     <row r="406" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL406" s="132"/>
+      <c r="BL406" s="129"/>
     </row>
     <row r="407" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL407" s="132"/>
+      <c r="BL407" s="129"/>
     </row>
     <row r="408" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL408" s="132"/>
+      <c r="BL408" s="129"/>
     </row>
     <row r="409" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL409" s="132"/>
+      <c r="BL409" s="129"/>
     </row>
     <row r="410" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL410" s="132"/>
+      <c r="BL410" s="129"/>
     </row>
     <row r="411" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL411" s="132"/>
+      <c r="BL411" s="129"/>
     </row>
     <row r="412" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL412" s="132"/>
+      <c r="BL412" s="129"/>
     </row>
     <row r="413" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL413" s="132"/>
+      <c r="BL413" s="129"/>
     </row>
     <row r="414" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL414" s="132"/>
+      <c r="BL414" s="129"/>
     </row>
     <row r="415" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL415" s="132"/>
+      <c r="BL415" s="129"/>
     </row>
     <row r="416" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL416" s="132"/>
+      <c r="BL416" s="129"/>
     </row>
     <row r="417" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL417" s="132"/>
+      <c r="BL417" s="129"/>
     </row>
     <row r="418" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL418" s="132"/>
+      <c r="BL418" s="129"/>
     </row>
     <row r="419" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL419" s="132"/>
+      <c r="BL419" s="129"/>
     </row>
     <row r="420" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL420" s="132"/>
+      <c r="BL420" s="129"/>
     </row>
     <row r="421" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL421" s="132"/>
+      <c r="BL421" s="129"/>
     </row>
     <row r="422" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL422" s="132"/>
+      <c r="BL422" s="129"/>
     </row>
     <row r="423" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL423" s="132"/>
+      <c r="BL423" s="129"/>
     </row>
     <row r="424" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL424" s="132"/>
+      <c r="BL424" s="129"/>
     </row>
     <row r="425" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL425" s="132"/>
+      <c r="BL425" s="129"/>
     </row>
     <row r="426" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL426" s="132"/>
+      <c r="BL426" s="129"/>
     </row>
     <row r="427" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL427" s="132"/>
+      <c r="BL427" s="129"/>
     </row>
     <row r="428" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL428" s="132"/>
+      <c r="BL428" s="129"/>
     </row>
     <row r="429" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL429" s="132"/>
+      <c r="BL429" s="129"/>
     </row>
     <row r="430" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL430" s="132"/>
+      <c r="BL430" s="129"/>
     </row>
     <row r="431" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL431" s="132"/>
+      <c r="BL431" s="129"/>
     </row>
     <row r="432" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL432" s="132"/>
+      <c r="BL432" s="129"/>
     </row>
     <row r="433" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL433" s="132"/>
+      <c r="BL433" s="129"/>
     </row>
     <row r="434" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL434" s="132"/>
+      <c r="BL434" s="129"/>
     </row>
     <row r="435" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL435" s="132"/>
+      <c r="BL435" s="129"/>
     </row>
     <row r="436" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL436" s="132"/>
+      <c r="BL436" s="129"/>
     </row>
     <row r="437" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL437" s="132"/>
+      <c r="BL437" s="129"/>
     </row>
     <row r="438" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL438" s="132"/>
+      <c r="BL438" s="129"/>
     </row>
     <row r="439" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL439" s="132"/>
+      <c r="BL439" s="129"/>
     </row>
     <row r="440" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL440" s="132"/>
+      <c r="BL440" s="129"/>
     </row>
     <row r="441" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL441" s="132"/>
+      <c r="BL441" s="129"/>
     </row>
     <row r="442" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL442" s="132"/>
+      <c r="BL442" s="129"/>
     </row>
     <row r="443" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL443" s="132"/>
+      <c r="BL443" s="129"/>
     </row>
     <row r="444" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL444" s="132"/>
+      <c r="BL444" s="129"/>
     </row>
     <row r="445" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL445" s="132"/>
+      <c r="BL445" s="129"/>
     </row>
     <row r="446" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL446" s="132"/>
+      <c r="BL446" s="129"/>
     </row>
     <row r="447" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL447" s="132"/>
+      <c r="BL447" s="129"/>
     </row>
     <row r="448" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL448" s="132"/>
+      <c r="BL448" s="129"/>
     </row>
     <row r="449" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL449" s="132"/>
+      <c r="BL449" s="129"/>
     </row>
     <row r="450" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL450" s="132"/>
+      <c r="BL450" s="129"/>
     </row>
     <row r="451" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL451" s="132"/>
+      <c r="BL451" s="129"/>
     </row>
     <row r="452" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL452" s="132"/>
+      <c r="BL452" s="129"/>
     </row>
     <row r="453" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL453" s="132"/>
+      <c r="BL453" s="129"/>
     </row>
     <row r="454" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL454" s="132"/>
+      <c r="BL454" s="129"/>
     </row>
     <row r="455" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL455" s="132"/>
+      <c r="BL455" s="129"/>
     </row>
     <row r="456" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL456" s="132"/>
+      <c r="BL456" s="129"/>
     </row>
     <row r="457" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL457" s="132"/>
+      <c r="BL457" s="129"/>
     </row>
     <row r="458" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL458" s="132"/>
+      <c r="BL458" s="129"/>
     </row>
     <row r="459" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL459" s="132"/>
+      <c r="BL459" s="129"/>
     </row>
     <row r="460" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL460" s="132"/>
+      <c r="BL460" s="129"/>
     </row>
     <row r="461" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL461" s="132"/>
+      <c r="BL461" s="129"/>
     </row>
     <row r="462" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL462" s="132"/>
+      <c r="BL462" s="129"/>
     </row>
     <row r="463" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL463" s="132"/>
+      <c r="BL463" s="129"/>
     </row>
     <row r="464" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL464" s="132"/>
+      <c r="BL464" s="129"/>
     </row>
     <row r="465" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL465" s="132"/>
+      <c r="BL465" s="129"/>
     </row>
     <row r="466" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL466" s="132"/>
+      <c r="BL466" s="129"/>
     </row>
     <row r="467" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL467" s="132"/>
+      <c r="BL467" s="129"/>
     </row>
     <row r="468" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL468" s="132"/>
+      <c r="BL468" s="129"/>
     </row>
     <row r="469" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL469" s="132"/>
+      <c r="BL469" s="129"/>
     </row>
     <row r="470" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL470" s="132"/>
+      <c r="BL470" s="129"/>
     </row>
     <row r="471" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL471" s="132"/>
+      <c r="BL471" s="129"/>
     </row>
     <row r="472" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL472" s="132"/>
+      <c r="BL472" s="129"/>
     </row>
     <row r="473" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL473" s="132"/>
+      <c r="BL473" s="129"/>
     </row>
     <row r="474" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL474" s="132"/>
+      <c r="BL474" s="129"/>
     </row>
     <row r="475" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL475" s="132"/>
+      <c r="BL475" s="129"/>
     </row>
     <row r="476" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL476" s="132"/>
+      <c r="BL476" s="129"/>
     </row>
     <row r="477" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL477" s="132"/>
+      <c r="BL477" s="129"/>
     </row>
     <row r="478" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL478" s="132"/>
+      <c r="BL478" s="129"/>
     </row>
     <row r="479" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL479" s="132"/>
+      <c r="BL479" s="129"/>
     </row>
     <row r="480" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL480" s="132"/>
+      <c r="BL480" s="129"/>
     </row>
     <row r="481" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL481" s="132"/>
+      <c r="BL481" s="129"/>
     </row>
     <row r="482" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL482" s="132"/>
+      <c r="BL482" s="129"/>
     </row>
     <row r="483" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL483" s="132"/>
+      <c r="BL483" s="129"/>
     </row>
     <row r="484" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL484" s="132"/>
+      <c r="BL484" s="129"/>
     </row>
     <row r="485" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL485" s="132"/>
+      <c r="BL485" s="129"/>
     </row>
     <row r="486" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL486" s="132"/>
+      <c r="BL486" s="129"/>
     </row>
     <row r="487" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL487" s="132"/>
+      <c r="BL487" s="129"/>
     </row>
     <row r="488" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL488" s="132"/>
+      <c r="BL488" s="129"/>
     </row>
     <row r="489" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL489" s="132"/>
+      <c r="BL489" s="129"/>
     </row>
     <row r="490" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL490" s="132"/>
+      <c r="BL490" s="129"/>
     </row>
     <row r="491" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL491" s="132"/>
+      <c r="BL491" s="129"/>
     </row>
     <row r="492" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL492" s="132"/>
+      <c r="BL492" s="129"/>
     </row>
     <row r="493" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL493" s="132"/>
+      <c r="BL493" s="129"/>
     </row>
     <row r="494" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL494" s="132"/>
+      <c r="BL494" s="129"/>
     </row>
     <row r="495" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL495" s="132"/>
+      <c r="BL495" s="129"/>
     </row>
     <row r="496" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL496" s="132"/>
+      <c r="BL496" s="129"/>
     </row>
     <row r="497" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL497" s="132"/>
+      <c r="BL497" s="129"/>
     </row>
     <row r="498" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL498" s="132"/>
+      <c r="BL498" s="129"/>
     </row>
     <row r="499" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL499" s="132"/>
+      <c r="BL499" s="129"/>
     </row>
     <row r="500" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL500" s="132"/>
+      <c r="BL500" s="129"/>
     </row>
     <row r="501" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL501" s="132"/>
+      <c r="BL501" s="129"/>
     </row>
     <row r="502" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL502" s="132"/>
+      <c r="BL502" s="129"/>
     </row>
     <row r="503" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL503" s="132"/>
+      <c r="BL503" s="129"/>
     </row>
     <row r="504" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL504" s="132"/>
+      <c r="BL504" s="129"/>
     </row>
     <row r="505" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL505" s="132"/>
+      <c r="BL505" s="129"/>
     </row>
     <row r="506" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL506" s="132"/>
+      <c r="BL506" s="129"/>
     </row>
     <row r="507" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL507" s="132"/>
+      <c r="BL507" s="129"/>
     </row>
     <row r="508" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL508" s="132"/>
+      <c r="BL508" s="129"/>
     </row>
     <row r="509" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL509" s="132"/>
+      <c r="BL509" s="129"/>
     </row>
     <row r="510" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL510" s="132"/>
+      <c r="BL510" s="129"/>
     </row>
     <row r="511" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL511" s="132"/>
+      <c r="BL511" s="129"/>
     </row>
     <row r="512" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL512" s="132"/>
+      <c r="BL512" s="129"/>
     </row>
     <row r="513" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL513" s="132"/>
+      <c r="BL513" s="129"/>
     </row>
     <row r="514" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL514" s="132"/>
+      <c r="BL514" s="129"/>
     </row>
     <row r="515" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL515" s="132"/>
+      <c r="BL515" s="129"/>
     </row>
     <row r="516" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL516" s="132"/>
+      <c r="BL516" s="129"/>
     </row>
     <row r="517" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL517" s="132"/>
+      <c r="BL517" s="129"/>
     </row>
     <row r="518" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL518" s="132"/>
+      <c r="BL518" s="129"/>
     </row>
     <row r="519" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL519" s="132"/>
+      <c r="BL519" s="129"/>
     </row>
     <row r="520" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL520" s="132"/>
+      <c r="BL520" s="129"/>
     </row>
     <row r="521" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL521" s="132"/>
+      <c r="BL521" s="129"/>
     </row>
     <row r="522" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL522" s="132"/>
+      <c r="BL522" s="129"/>
     </row>
     <row r="523" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL523" s="132"/>
+      <c r="BL523" s="129"/>
     </row>
     <row r="524" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL524" s="132"/>
+      <c r="BL524" s="129"/>
     </row>
     <row r="525" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL525" s="132"/>
+      <c r="BL525" s="129"/>
     </row>
     <row r="526" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL526" s="132"/>
+      <c r="BL526" s="129"/>
     </row>
     <row r="527" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL527" s="132"/>
+      <c r="BL527" s="129"/>
     </row>
     <row r="528" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL528" s="132"/>
+      <c r="BL528" s="129"/>
     </row>
     <row r="529" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL529" s="132"/>
+      <c r="BL529" s="129"/>
     </row>
     <row r="530" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL530" s="132"/>
+      <c r="BL530" s="129"/>
     </row>
     <row r="531" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL531" s="132"/>
+      <c r="BL531" s="129"/>
     </row>
     <row r="532" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL532" s="132"/>
+      <c r="BL532" s="129"/>
     </row>
     <row r="533" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL533" s="132"/>
+      <c r="BL533" s="129"/>
     </row>
     <row r="534" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL534" s="132"/>
+      <c r="BL534" s="129"/>
     </row>
     <row r="535" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL535" s="132"/>
+      <c r="BL535" s="129"/>
     </row>
     <row r="536" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL536" s="132"/>
+      <c r="BL536" s="129"/>
     </row>
     <row r="537" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL537" s="132"/>
+      <c r="BL537" s="129"/>
     </row>
     <row r="538" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL538" s="132"/>
+      <c r="BL538" s="129"/>
     </row>
     <row r="539" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL539" s="132"/>
+      <c r="BL539" s="129"/>
     </row>
     <row r="540" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL540" s="132"/>
+      <c r="BL540" s="129"/>
     </row>
     <row r="541" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL541" s="132"/>
+      <c r="BL541" s="129"/>
     </row>
     <row r="542" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL542" s="132"/>
+      <c r="BL542" s="129"/>
     </row>
     <row r="543" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL543" s="132"/>
+      <c r="BL543" s="129"/>
     </row>
     <row r="544" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL544" s="132"/>
+      <c r="BL544" s="129"/>
     </row>
     <row r="545" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL545" s="132"/>
+      <c r="BL545" s="129"/>
     </row>
     <row r="546" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL546" s="132"/>
+      <c r="BL546" s="129"/>
     </row>
     <row r="547" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL547" s="132"/>
+      <c r="BL547" s="129"/>
     </row>
     <row r="548" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL548" s="132"/>
+      <c r="BL548" s="129"/>
     </row>
     <row r="549" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL549" s="132"/>
+      <c r="BL549" s="129"/>
     </row>
     <row r="550" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL550" s="132"/>
+      <c r="BL550" s="129"/>
     </row>
     <row r="551" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL551" s="132"/>
+      <c r="BL551" s="129"/>
     </row>
     <row r="552" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL552" s="132"/>
+      <c r="BL552" s="129"/>
     </row>
     <row r="553" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL553" s="132"/>
+      <c r="BL553" s="129"/>
     </row>
     <row r="554" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL554" s="132"/>
+      <c r="BL554" s="129"/>
     </row>
     <row r="555" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL555" s="132"/>
+      <c r="BL555" s="129"/>
     </row>
     <row r="556" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL556" s="132"/>
+      <c r="BL556" s="129"/>
     </row>
     <row r="557" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL557" s="132"/>
+      <c r="BL557" s="129"/>
     </row>
     <row r="558" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL558" s="132"/>
+      <c r="BL558" s="129"/>
     </row>
     <row r="559" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL559" s="132"/>
+      <c r="BL559" s="129"/>
     </row>
     <row r="560" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL560" s="132"/>
+      <c r="BL560" s="129"/>
     </row>
     <row r="561" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL561" s="132"/>
+      <c r="BL561" s="129"/>
     </row>
     <row r="562" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL562" s="132"/>
+      <c r="BL562" s="129"/>
     </row>
     <row r="563" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL563" s="132"/>
+      <c r="BL563" s="129"/>
     </row>
     <row r="564" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL564" s="132"/>
+      <c r="BL564" s="129"/>
     </row>
     <row r="565" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL565" s="132"/>
+      <c r="BL565" s="129"/>
     </row>
     <row r="566" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL566" s="132"/>
+      <c r="BL566" s="129"/>
     </row>
     <row r="567" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL567" s="132"/>
+      <c r="BL567" s="129"/>
     </row>
     <row r="568" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL568" s="132"/>
+      <c r="BL568" s="129"/>
     </row>
     <row r="569" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL569" s="132"/>
+      <c r="BL569" s="129"/>
     </row>
     <row r="570" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL570" s="132"/>
+      <c r="BL570" s="129"/>
     </row>
     <row r="571" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL571" s="132"/>
+      <c r="BL571" s="129"/>
     </row>
     <row r="572" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL572" s="132"/>
+      <c r="BL572" s="129"/>
     </row>
     <row r="573" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL573" s="132"/>
+      <c r="BL573" s="129"/>
     </row>
     <row r="574" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL574" s="132"/>
+      <c r="BL574" s="129"/>
     </row>
     <row r="575" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL575" s="132"/>
+      <c r="BL575" s="129"/>
     </row>
     <row r="576" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL576" s="132"/>
+      <c r="BL576" s="129"/>
     </row>
     <row r="577" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL577" s="132"/>
+      <c r="BL577" s="129"/>
     </row>
     <row r="578" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL578" s="132"/>
+      <c r="BL578" s="129"/>
     </row>
     <row r="579" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL579" s="132"/>
+      <c r="BL579" s="129"/>
     </row>
     <row r="580" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL580" s="132"/>
+      <c r="BL580" s="129"/>
     </row>
     <row r="581" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL581" s="132"/>
+      <c r="BL581" s="129"/>
     </row>
     <row r="582" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL582" s="132"/>
+      <c r="BL582" s="129"/>
     </row>
     <row r="583" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL583" s="132"/>
+      <c r="BL583" s="129"/>
     </row>
     <row r="584" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL584" s="132"/>
+      <c r="BL584" s="129"/>
     </row>
     <row r="585" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL585" s="132"/>
+      <c r="BL585" s="129"/>
     </row>
     <row r="586" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL586" s="132"/>
+      <c r="BL586" s="129"/>
     </row>
     <row r="587" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL587" s="132"/>
+      <c r="BL587" s="129"/>
     </row>
     <row r="588" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL588" s="132"/>
+      <c r="BL588" s="129"/>
     </row>
     <row r="589" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL589" s="132"/>
+      <c r="BL589" s="129"/>
     </row>
     <row r="590" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL590" s="132"/>
+      <c r="BL590" s="129"/>
     </row>
     <row r="591" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL591" s="132"/>
+      <c r="BL591" s="129"/>
     </row>
     <row r="592" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL592" s="132"/>
+      <c r="BL592" s="129"/>
     </row>
     <row r="593" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL593" s="132"/>
+      <c r="BL593" s="129"/>
     </row>
     <row r="594" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL594" s="132"/>
+      <c r="BL594" s="129"/>
     </row>
     <row r="595" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL595" s="132"/>
+      <c r="BL595" s="129"/>
     </row>
     <row r="596" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL596" s="132"/>
+      <c r="BL596" s="129"/>
     </row>
     <row r="597" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL597" s="132"/>
+      <c r="BL597" s="129"/>
     </row>
     <row r="598" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL598" s="132"/>
+      <c r="BL598" s="129"/>
     </row>
     <row r="599" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL599" s="132"/>
+      <c r="BL599" s="129"/>
     </row>
     <row r="600" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL600" s="132"/>
+      <c r="BL600" s="129"/>
     </row>
     <row r="601" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL601" s="132"/>
+      <c r="BL601" s="129"/>
     </row>
     <row r="602" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL602" s="132"/>
+      <c r="BL602" s="129"/>
     </row>
     <row r="603" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL603" s="132"/>
+      <c r="BL603" s="129"/>
     </row>
     <row r="604" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL604" s="132"/>
+      <c r="BL604" s="129"/>
     </row>
     <row r="605" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL605" s="132"/>
+      <c r="BL605" s="129"/>
     </row>
     <row r="606" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL606" s="132"/>
+      <c r="BL606" s="129"/>
     </row>
     <row r="607" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL607" s="132"/>
+      <c r="BL607" s="129"/>
     </row>
     <row r="608" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL608" s="132"/>
+      <c r="BL608" s="129"/>
     </row>
     <row r="609" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL609" s="132"/>
+      <c r="BL609" s="129"/>
     </row>
     <row r="610" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL610" s="132"/>
+      <c r="BL610" s="129"/>
     </row>
     <row r="611" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL611" s="132"/>
+      <c r="BL611" s="129"/>
     </row>
     <row r="612" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL612" s="132"/>
+      <c r="BL612" s="129"/>
     </row>
     <row r="613" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL613" s="132"/>
+      <c r="BL613" s="129"/>
     </row>
     <row r="614" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL614" s="132"/>
+      <c r="BL614" s="129"/>
     </row>
     <row r="615" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL615" s="132"/>
+      <c r="BL615" s="129"/>
     </row>
     <row r="616" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL616" s="132"/>
+      <c r="BL616" s="129"/>
     </row>
     <row r="617" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL617" s="132"/>
+      <c r="BL617" s="129"/>
     </row>
     <row r="618" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL618" s="132"/>
+      <c r="BL618" s="129"/>
     </row>
     <row r="619" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL619" s="132"/>
+      <c r="BL619" s="129"/>
     </row>
     <row r="620" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL620" s="132"/>
+      <c r="BL620" s="129"/>
     </row>
     <row r="621" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL621" s="132"/>
+      <c r="BL621" s="129"/>
     </row>
     <row r="622" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL622" s="132"/>
+      <c r="BL622" s="129"/>
     </row>
     <row r="623" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL623" s="132"/>
+      <c r="BL623" s="129"/>
     </row>
     <row r="624" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL624" s="132"/>
+      <c r="BL624" s="129"/>
     </row>
     <row r="625" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL625" s="132"/>
+      <c r="BL625" s="129"/>
     </row>
     <row r="626" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL626" s="132"/>
+      <c r="BL626" s="129"/>
     </row>
     <row r="627" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL627" s="132"/>
+      <c r="BL627" s="129"/>
     </row>
     <row r="628" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL628" s="132"/>
+      <c r="BL628" s="129"/>
     </row>
     <row r="629" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL629" s="132"/>
+      <c r="BL629" s="129"/>
     </row>
     <row r="630" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL630" s="132"/>
+      <c r="BL630" s="129"/>
     </row>
     <row r="631" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL631" s="132"/>
+      <c r="BL631" s="129"/>
     </row>
     <row r="632" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL632" s="132"/>
+      <c r="BL632" s="129"/>
     </row>
     <row r="633" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL633" s="132"/>
+      <c r="BL633" s="129"/>
     </row>
     <row r="634" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL634" s="132"/>
+      <c r="BL634" s="129"/>
     </row>
     <row r="635" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL635" s="132"/>
+      <c r="BL635" s="129"/>
     </row>
     <row r="636" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL636" s="132"/>
+      <c r="BL636" s="129"/>
     </row>
     <row r="637" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL637" s="132"/>
+      <c r="BL637" s="129"/>
     </row>
     <row r="638" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL638" s="132"/>
+      <c r="BL638" s="129"/>
     </row>
     <row r="639" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL639" s="132"/>
+      <c r="BL639" s="129"/>
     </row>
     <row r="640" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL640" s="132"/>
+      <c r="BL640" s="129"/>
     </row>
     <row r="641" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL641" s="132"/>
+      <c r="BL641" s="129"/>
     </row>
     <row r="642" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL642" s="132"/>
+      <c r="BL642" s="129"/>
     </row>
     <row r="643" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL643" s="132"/>
+      <c r="BL643" s="129"/>
     </row>
     <row r="644" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL644" s="132"/>
+      <c r="BL644" s="129"/>
     </row>
     <row r="645" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL645" s="132"/>
+      <c r="BL645" s="129"/>
     </row>
     <row r="646" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL646" s="132"/>
+      <c r="BL646" s="129"/>
     </row>
     <row r="647" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL647" s="132"/>
+      <c r="BL647" s="129"/>
     </row>
     <row r="648" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL648" s="132"/>
+      <c r="BL648" s="129"/>
     </row>
     <row r="649" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL649" s="132"/>
+      <c r="BL649" s="129"/>
     </row>
     <row r="650" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL650" s="132"/>
+      <c r="BL650" s="129"/>
     </row>
     <row r="651" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL651" s="132"/>
+      <c r="BL651" s="129"/>
     </row>
     <row r="652" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL652" s="132"/>
+      <c r="BL652" s="129"/>
     </row>
     <row r="653" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL653" s="132"/>
+      <c r="BL653" s="129"/>
     </row>
     <row r="654" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL654" s="132"/>
+      <c r="BL654" s="129"/>
     </row>
     <row r="655" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL655" s="132"/>
+      <c r="BL655" s="129"/>
     </row>
     <row r="656" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL656" s="132"/>
+      <c r="BL656" s="129"/>
     </row>
     <row r="657" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL657" s="132"/>
+      <c r="BL657" s="129"/>
     </row>
     <row r="658" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL658" s="132"/>
+      <c r="BL658" s="129"/>
     </row>
     <row r="659" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL659" s="132"/>
+      <c r="BL659" s="129"/>
     </row>
     <row r="660" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL660" s="132"/>
+      <c r="BL660" s="129"/>
     </row>
     <row r="661" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL661" s="132"/>
+      <c r="BL661" s="129"/>
     </row>
     <row r="662" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL662" s="132"/>
+      <c r="BL662" s="129"/>
     </row>
     <row r="663" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL663" s="132"/>
+      <c r="BL663" s="129"/>
     </row>
     <row r="664" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL664" s="132"/>
+      <c r="BL664" s="129"/>
     </row>
     <row r="665" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL665" s="132"/>
+      <c r="BL665" s="129"/>
     </row>
     <row r="666" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL666" s="132"/>
+      <c r="BL666" s="129"/>
     </row>
     <row r="667" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL667" s="132"/>
+      <c r="BL667" s="129"/>
     </row>
     <row r="668" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL668" s="132"/>
+      <c r="BL668" s="129"/>
     </row>
     <row r="669" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL669" s="132"/>
+      <c r="BL669" s="129"/>
     </row>
     <row r="670" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL670" s="132"/>
+      <c r="BL670" s="129"/>
     </row>
     <row r="671" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL671" s="132"/>
+      <c r="BL671" s="129"/>
     </row>
     <row r="672" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL672" s="132"/>
+      <c r="BL672" s="129"/>
     </row>
     <row r="673" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL673" s="132"/>
+      <c r="BL673" s="129"/>
     </row>
     <row r="674" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL674" s="132"/>
+      <c r="BL674" s="129"/>
     </row>
     <row r="675" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL675" s="132"/>
+      <c r="BL675" s="129"/>
     </row>
     <row r="676" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL676" s="132"/>
+      <c r="BL676" s="129"/>
     </row>
     <row r="677" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL677" s="132"/>
+      <c r="BL677" s="129"/>
     </row>
     <row r="678" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL678" s="132"/>
+      <c r="BL678" s="129"/>
     </row>
     <row r="679" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL679" s="132"/>
+      <c r="BL679" s="129"/>
     </row>
     <row r="680" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL680" s="132"/>
+      <c r="BL680" s="129"/>
     </row>
     <row r="681" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL681" s="132"/>
+      <c r="BL681" s="129"/>
     </row>
     <row r="682" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL682" s="132"/>
+      <c r="BL682" s="129"/>
     </row>
     <row r="683" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL683" s="132"/>
+      <c r="BL683" s="129"/>
     </row>
     <row r="684" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL684" s="132"/>
+      <c r="BL684" s="129"/>
     </row>
     <row r="685" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL685" s="132"/>
+      <c r="BL685" s="129"/>
     </row>
     <row r="686" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL686" s="132"/>
+      <c r="BL686" s="129"/>
     </row>
     <row r="687" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL687" s="132"/>
+      <c r="BL687" s="129"/>
     </row>
     <row r="688" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL688" s="132"/>
+      <c r="BL688" s="129"/>
     </row>
     <row r="689" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL689" s="132"/>
+      <c r="BL689" s="129"/>
     </row>
     <row r="690" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL690" s="132"/>
+      <c r="BL690" s="129"/>
     </row>
     <row r="691" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL691" s="132"/>
+      <c r="BL691" s="129"/>
     </row>
     <row r="692" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL692" s="132"/>
+      <c r="BL692" s="129"/>
     </row>
     <row r="693" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL693" s="132"/>
+      <c r="BL693" s="129"/>
     </row>
     <row r="694" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL694" s="132"/>
+      <c r="BL694" s="129"/>
     </row>
     <row r="695" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL695" s="132"/>
+      <c r="BL695" s="129"/>
     </row>
     <row r="696" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL696" s="132"/>
+      <c r="BL696" s="129"/>
     </row>
     <row r="697" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL697" s="132"/>
+      <c r="BL697" s="129"/>
     </row>
     <row r="698" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL698" s="132"/>
+      <c r="BL698" s="129"/>
     </row>
     <row r="699" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL699" s="132"/>
+      <c r="BL699" s="129"/>
     </row>
     <row r="700" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL700" s="132"/>
+      <c r="BL700" s="129"/>
     </row>
     <row r="701" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL701" s="132"/>
+      <c r="BL701" s="129"/>
     </row>
     <row r="702" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL702" s="132"/>
+      <c r="BL702" s="129"/>
     </row>
     <row r="703" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL703" s="132"/>
+      <c r="BL703" s="129"/>
     </row>
     <row r="704" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL704" s="132"/>
+      <c r="BL704" s="129"/>
     </row>
     <row r="705" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL705" s="132"/>
+      <c r="BL705" s="129"/>
     </row>
     <row r="706" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL706" s="132"/>
+      <c r="BL706" s="129"/>
     </row>
     <row r="707" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL707" s="132"/>
+      <c r="BL707" s="129"/>
     </row>
     <row r="708" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL708" s="132"/>
+      <c r="BL708" s="129"/>
     </row>
     <row r="709" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL709" s="132"/>
+      <c r="BL709" s="129"/>
     </row>
     <row r="710" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL710" s="132"/>
+      <c r="BL710" s="129"/>
     </row>
     <row r="711" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL711" s="132"/>
+      <c r="BL711" s="129"/>
     </row>
     <row r="712" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL712" s="132"/>
+      <c r="BL712" s="129"/>
     </row>
     <row r="713" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL713" s="132"/>
+      <c r="BL713" s="129"/>
     </row>
     <row r="714" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL714" s="132"/>
+      <c r="BL714" s="129"/>
     </row>
     <row r="715" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL715" s="132"/>
+      <c r="BL715" s="129"/>
     </row>
     <row r="716" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL716" s="132"/>
+      <c r="BL716" s="129"/>
     </row>
     <row r="717" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL717" s="132"/>
+      <c r="BL717" s="129"/>
     </row>
     <row r="718" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL718" s="132"/>
+      <c r="BL718" s="129"/>
     </row>
     <row r="719" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL719" s="132"/>
+      <c r="BL719" s="129"/>
     </row>
     <row r="720" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL720" s="132"/>
+      <c r="BL720" s="129"/>
     </row>
     <row r="721" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL721" s="132"/>
+      <c r="BL721" s="129"/>
     </row>
     <row r="722" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL722" s="132"/>
+      <c r="BL722" s="129"/>
     </row>
     <row r="723" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL723" s="132"/>
+      <c r="BL723" s="129"/>
     </row>
     <row r="724" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL724" s="132"/>
+      <c r="BL724" s="129"/>
     </row>
     <row r="725" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL725" s="132"/>
+      <c r="BL725" s="129"/>
     </row>
     <row r="726" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL726" s="132"/>
+      <c r="BL726" s="129"/>
     </row>
     <row r="727" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL727" s="132"/>
+      <c r="BL727" s="129"/>
     </row>
     <row r="728" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL728" s="132"/>
+      <c r="BL728" s="129"/>
     </row>
     <row r="729" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL729" s="132"/>
+      <c r="BL729" s="129"/>
     </row>
     <row r="730" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL730" s="132"/>
+      <c r="BL730" s="129"/>
     </row>
     <row r="731" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL731" s="132"/>
+      <c r="BL731" s="129"/>
     </row>
     <row r="732" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL732" s="132"/>
+      <c r="BL732" s="129"/>
     </row>
     <row r="733" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL733" s="132"/>
+      <c r="BL733" s="129"/>
     </row>
     <row r="734" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL734" s="132"/>
+      <c r="BL734" s="129"/>
     </row>
     <row r="735" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL735" s="132"/>
+      <c r="BL735" s="129"/>
     </row>
     <row r="736" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL736" s="132"/>
+      <c r="BL736" s="129"/>
     </row>
     <row r="737" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL737" s="132"/>
+      <c r="BL737" s="129"/>
     </row>
     <row r="738" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL738" s="132"/>
+      <c r="BL738" s="129"/>
     </row>
     <row r="739" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL739" s="132"/>
+      <c r="BL739" s="129"/>
     </row>
     <row r="740" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL740" s="132"/>
+      <c r="BL740" s="129"/>
     </row>
     <row r="741" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL741" s="132"/>
+      <c r="BL741" s="129"/>
     </row>
     <row r="742" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL742" s="132"/>
+      <c r="BL742" s="129"/>
     </row>
     <row r="743" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL743" s="132"/>
+      <c r="BL743" s="129"/>
     </row>
     <row r="744" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL744" s="132"/>
+      <c r="BL744" s="129"/>
     </row>
     <row r="745" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL745" s="132"/>
+      <c r="BL745" s="129"/>
     </row>
     <row r="746" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL746" s="132"/>
+      <c r="BL746" s="129"/>
     </row>
     <row r="747" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL747" s="132"/>
+      <c r="BL747" s="129"/>
     </row>
     <row r="748" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL748" s="132"/>
+      <c r="BL748" s="129"/>
     </row>
     <row r="749" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL749" s="132"/>
+      <c r="BL749" s="129"/>
     </row>
     <row r="750" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL750" s="132"/>
+      <c r="BL750" s="129"/>
     </row>
     <row r="751" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL751" s="132"/>
+      <c r="BL751" s="129"/>
     </row>
     <row r="752" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL752" s="132"/>
+      <c r="BL752" s="129"/>
     </row>
     <row r="753" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL753" s="132"/>
+      <c r="BL753" s="129"/>
     </row>
     <row r="754" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL754" s="132"/>
+      <c r="BL754" s="129"/>
     </row>
     <row r="755" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL755" s="132"/>
+      <c r="BL755" s="129"/>
     </row>
     <row r="756" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL756" s="132"/>
+      <c r="BL756" s="129"/>
     </row>
     <row r="757" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL757" s="132"/>
+      <c r="BL757" s="129"/>
     </row>
     <row r="758" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL758" s="132"/>
+      <c r="BL758" s="129"/>
     </row>
     <row r="759" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL759" s="132"/>
+      <c r="BL759" s="129"/>
     </row>
     <row r="760" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL760" s="132"/>
+      <c r="BL760" s="129"/>
     </row>
     <row r="761" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL761" s="132"/>
+      <c r="BL761" s="129"/>
     </row>
     <row r="762" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL762" s="132"/>
+      <c r="BL762" s="129"/>
     </row>
     <row r="763" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL763" s="132"/>
+      <c r="BL763" s="129"/>
     </row>
     <row r="764" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL764" s="132"/>
+      <c r="BL764" s="129"/>
     </row>
     <row r="765" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL765" s="132"/>
+      <c r="BL765" s="129"/>
     </row>
     <row r="766" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL766" s="132"/>
+      <c r="BL766" s="129"/>
     </row>
     <row r="767" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL767" s="132"/>
+      <c r="BL767" s="129"/>
     </row>
     <row r="768" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL768" s="132"/>
+      <c r="BL768" s="129"/>
     </row>
     <row r="769" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL769" s="132"/>
+      <c r="BL769" s="129"/>
     </row>
     <row r="770" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL770" s="132"/>
+      <c r="BL770" s="129"/>
     </row>
     <row r="771" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL771" s="132"/>
+      <c r="BL771" s="129"/>
     </row>
     <row r="772" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL772" s="132"/>
+      <c r="BL772" s="129"/>
     </row>
     <row r="773" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL773" s="132"/>
+      <c r="BL773" s="129"/>
     </row>
     <row r="774" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL774" s="132"/>
+      <c r="BL774" s="129"/>
     </row>
     <row r="775" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL775" s="132"/>
+      <c r="BL775" s="129"/>
     </row>
     <row r="776" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL776" s="132"/>
+      <c r="BL776" s="129"/>
     </row>
     <row r="777" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL777" s="132"/>
+      <c r="BL777" s="129"/>
     </row>
     <row r="778" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL778" s="132"/>
+      <c r="BL778" s="129"/>
     </row>
     <row r="779" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL779" s="132"/>
+      <c r="BL779" s="129"/>
     </row>
     <row r="780" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL780" s="132"/>
+      <c r="BL780" s="129"/>
     </row>
     <row r="781" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL781" s="132"/>
+      <c r="BL781" s="129"/>
     </row>
     <row r="782" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL782" s="132"/>
+      <c r="BL782" s="129"/>
     </row>
     <row r="783" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL783" s="132"/>
+      <c r="BL783" s="129"/>
     </row>
     <row r="784" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL784" s="132"/>
+      <c r="BL784" s="129"/>
     </row>
     <row r="785" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL785" s="132"/>
+      <c r="BL785" s="129"/>
     </row>
     <row r="786" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL786" s="132"/>
+      <c r="BL786" s="129"/>
     </row>
     <row r="787" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL787" s="132"/>
+      <c r="BL787" s="129"/>
     </row>
     <row r="788" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL788" s="132"/>
+      <c r="BL788" s="129"/>
     </row>
     <row r="789" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL789" s="132"/>
+      <c r="BL789" s="129"/>
     </row>
     <row r="790" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL790" s="132"/>
+      <c r="BL790" s="129"/>
     </row>
     <row r="791" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL791" s="132"/>
+      <c r="BL791" s="129"/>
     </row>
     <row r="792" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL792" s="132"/>
+      <c r="BL792" s="129"/>
     </row>
     <row r="793" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL793" s="132"/>
+      <c r="BL793" s="129"/>
     </row>
     <row r="794" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL794" s="132"/>
+      <c r="BL794" s="129"/>
     </row>
     <row r="795" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL795" s="132"/>
+      <c r="BL795" s="129"/>
     </row>
     <row r="796" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL796" s="132"/>
+      <c r="BL796" s="129"/>
     </row>
     <row r="797" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL797" s="132"/>
+      <c r="BL797" s="129"/>
     </row>
     <row r="798" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL798" s="132"/>
+      <c r="BL798" s="129"/>
     </row>
     <row r="799" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL799" s="132"/>
+      <c r="BL799" s="129"/>
     </row>
     <row r="800" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL800" s="132"/>
+      <c r="BL800" s="129"/>
     </row>
     <row r="801" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL801" s="132"/>
+      <c r="BL801" s="129"/>
     </row>
     <row r="802" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL802" s="132"/>
+      <c r="BL802" s="129"/>
     </row>
     <row r="803" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL803" s="132"/>
+      <c r="BL803" s="129"/>
     </row>
     <row r="804" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL804" s="132"/>
+      <c r="BL804" s="129"/>
     </row>
     <row r="805" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL805" s="132"/>
+      <c r="BL805" s="129"/>
     </row>
     <row r="806" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL806" s="132"/>
+      <c r="BL806" s="129"/>
     </row>
     <row r="807" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL807" s="132"/>
+      <c r="BL807" s="129"/>
     </row>
     <row r="808" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL808" s="132"/>
+      <c r="BL808" s="129"/>
     </row>
     <row r="809" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL809" s="132"/>
+      <c r="BL809" s="129"/>
     </row>
     <row r="810" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL810" s="132"/>
+      <c r="BL810" s="129"/>
     </row>
     <row r="811" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL811" s="132"/>
+      <c r="BL811" s="129"/>
     </row>
     <row r="812" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL812" s="132"/>
+      <c r="BL812" s="129"/>
     </row>
     <row r="813" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL813" s="132"/>
+      <c r="BL813" s="129"/>
     </row>
     <row r="814" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL814" s="132"/>
+      <c r="BL814" s="129"/>
     </row>
     <row r="815" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL815" s="132"/>
+      <c r="BL815" s="129"/>
     </row>
     <row r="816" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL816" s="132"/>
+      <c r="BL816" s="129"/>
     </row>
     <row r="817" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL817" s="132"/>
+      <c r="BL817" s="129"/>
     </row>
     <row r="818" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL818" s="132"/>
+      <c r="BL818" s="129"/>
     </row>
     <row r="819" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL819" s="132"/>
+      <c r="BL819" s="129"/>
     </row>
     <row r="820" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL820" s="132"/>
+      <c r="BL820" s="129"/>
     </row>
     <row r="821" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL821" s="132"/>
+      <c r="BL821" s="129"/>
     </row>
     <row r="822" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL822" s="132"/>
+      <c r="BL822" s="129"/>
     </row>
     <row r="823" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL823" s="132"/>
+      <c r="BL823" s="129"/>
     </row>
     <row r="824" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL824" s="132"/>
+      <c r="BL824" s="129"/>
     </row>
     <row r="825" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL825" s="132"/>
+      <c r="BL825" s="129"/>
     </row>
     <row r="826" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL826" s="132"/>
+      <c r="BL826" s="129"/>
     </row>
     <row r="827" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL827" s="132"/>
+      <c r="BL827" s="129"/>
     </row>
     <row r="828" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL828" s="132"/>
+      <c r="BL828" s="129"/>
     </row>
     <row r="829" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL829" s="132"/>
+      <c r="BL829" s="129"/>
     </row>
     <row r="830" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL830" s="132"/>
+      <c r="BL830" s="129"/>
     </row>
     <row r="831" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL831" s="132"/>
+      <c r="BL831" s="129"/>
     </row>
     <row r="832" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL832" s="132"/>
+      <c r="BL832" s="129"/>
     </row>
     <row r="833" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL833" s="132"/>
+      <c r="BL833" s="129"/>
     </row>
     <row r="834" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL834" s="132"/>
+      <c r="BL834" s="129"/>
     </row>
     <row r="835" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL835" s="132"/>
+      <c r="BL835" s="129"/>
     </row>
     <row r="836" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL836" s="132"/>
+      <c r="BL836" s="129"/>
     </row>
     <row r="837" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL837" s="132"/>
+      <c r="BL837" s="129"/>
     </row>
     <row r="838" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL838" s="132"/>
+      <c r="BL838" s="129"/>
     </row>
     <row r="839" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL839" s="132"/>
+      <c r="BL839" s="129"/>
     </row>
     <row r="840" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL840" s="132"/>
+      <c r="BL840" s="129"/>
     </row>
     <row r="841" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL841" s="132"/>
+      <c r="BL841" s="129"/>
     </row>
     <row r="842" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL842" s="132"/>
+      <c r="BL842" s="129"/>
     </row>
     <row r="843" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL843" s="132"/>
+      <c r="BL843" s="129"/>
     </row>
     <row r="844" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL844" s="132"/>
+      <c r="BL844" s="129"/>
     </row>
     <row r="845" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL845" s="132"/>
+      <c r="BL845" s="129"/>
     </row>
     <row r="846" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL846" s="132"/>
+      <c r="BL846" s="129"/>
     </row>
     <row r="847" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL847" s="132"/>
+      <c r="BL847" s="129"/>
     </row>
     <row r="848" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL848" s="132"/>
+      <c r="BL848" s="129"/>
     </row>
     <row r="849" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL849" s="132"/>
+      <c r="BL849" s="129"/>
     </row>
     <row r="850" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL850" s="132"/>
+      <c r="BL850" s="129"/>
     </row>
     <row r="851" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL851" s="132"/>
+      <c r="BL851" s="129"/>
     </row>
     <row r="852" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL852" s="132"/>
+      <c r="BL852" s="129"/>
     </row>
     <row r="853" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL853" s="132"/>
+      <c r="BL853" s="129"/>
     </row>
     <row r="854" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL854" s="132"/>
+      <c r="BL854" s="129"/>
     </row>
     <row r="855" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL855" s="132"/>
+      <c r="BL855" s="129"/>
     </row>
     <row r="856" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL856" s="132"/>
+      <c r="BL856" s="129"/>
     </row>
     <row r="857" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL857" s="132"/>
+      <c r="BL857" s="129"/>
     </row>
     <row r="858" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL858" s="132"/>
+      <c r="BL858" s="129"/>
     </row>
     <row r="859" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL859" s="132"/>
+      <c r="BL859" s="129"/>
     </row>
     <row r="860" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL860" s="132"/>
+      <c r="BL860" s="129"/>
     </row>
     <row r="861" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL861" s="132"/>
+      <c r="BL861" s="129"/>
     </row>
     <row r="862" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL862" s="132"/>
+      <c r="BL862" s="129"/>
     </row>
     <row r="863" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL863" s="132"/>
+      <c r="BL863" s="129"/>
     </row>
     <row r="864" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL864" s="132"/>
+      <c r="BL864" s="129"/>
     </row>
     <row r="865" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL865" s="132"/>
+      <c r="BL865" s="129"/>
     </row>
     <row r="866" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL866" s="132"/>
+      <c r="BL866" s="129"/>
     </row>
     <row r="867" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL867" s="132"/>
+      <c r="BL867" s="129"/>
     </row>
     <row r="868" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL868" s="132"/>
+      <c r="BL868" s="129"/>
     </row>
     <row r="869" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL869" s="132"/>
+      <c r="BL869" s="129"/>
     </row>
     <row r="870" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL870" s="132"/>
+      <c r="BL870" s="129"/>
     </row>
     <row r="871" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL871" s="132"/>
+      <c r="BL871" s="129"/>
     </row>
     <row r="872" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL872" s="132"/>
+      <c r="BL872" s="129"/>
     </row>
     <row r="873" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL873" s="132"/>
+      <c r="BL873" s="129"/>
     </row>
     <row r="874" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL874" s="132"/>
+      <c r="BL874" s="129"/>
     </row>
     <row r="875" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL875" s="132"/>
+      <c r="BL875" s="129"/>
     </row>
     <row r="876" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL876" s="132"/>
+      <c r="BL876" s="129"/>
     </row>
     <row r="877" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL877" s="132"/>
+      <c r="BL877" s="129"/>
     </row>
     <row r="878" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL878" s="132"/>
+      <c r="BL878" s="129"/>
     </row>
     <row r="879" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL879" s="132"/>
+      <c r="BL879" s="129"/>
     </row>
     <row r="880" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL880" s="132"/>
+      <c r="BL880" s="129"/>
     </row>
     <row r="881" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL881" s="132"/>
+      <c r="BL881" s="129"/>
     </row>
     <row r="882" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL882" s="132"/>
+      <c r="BL882" s="129"/>
     </row>
     <row r="883" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL883" s="132"/>
+      <c r="BL883" s="129"/>
     </row>
     <row r="884" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL884" s="132"/>
+      <c r="BL884" s="129"/>
     </row>
     <row r="885" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL885" s="132"/>
+      <c r="BL885" s="129"/>
     </row>
     <row r="886" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL886" s="132"/>
+      <c r="BL886" s="129"/>
     </row>
     <row r="887" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL887" s="132"/>
+      <c r="BL887" s="129"/>
     </row>
     <row r="888" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL888" s="132"/>
+      <c r="BL888" s="129"/>
     </row>
     <row r="889" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL889" s="132"/>
+      <c r="BL889" s="129"/>
     </row>
     <row r="890" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL890" s="132"/>
+      <c r="BL890" s="129"/>
     </row>
     <row r="891" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL891" s="132"/>
+      <c r="BL891" s="129"/>
     </row>
     <row r="892" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL892" s="132"/>
+      <c r="BL892" s="129"/>
     </row>
     <row r="893" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL893" s="132"/>
+      <c r="BL893" s="129"/>
     </row>
     <row r="894" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL894" s="132"/>
+      <c r="BL894" s="129"/>
     </row>
     <row r="895" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL895" s="132"/>
+      <c r="BL895" s="129"/>
     </row>
     <row r="896" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL896" s="132"/>
+      <c r="BL896" s="129"/>
     </row>
     <row r="897" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL897" s="132"/>
+      <c r="BL897" s="129"/>
     </row>
     <row r="898" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL898" s="132"/>
+      <c r="BL898" s="129"/>
     </row>
     <row r="899" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL899" s="132"/>
+      <c r="BL899" s="129"/>
     </row>
     <row r="900" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL900" s="132"/>
+      <c r="BL900" s="129"/>
     </row>
     <row r="901" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL901" s="132"/>
+      <c r="BL901" s="129"/>
     </row>
     <row r="902" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL902" s="132"/>
+      <c r="BL902" s="129"/>
     </row>
     <row r="903" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL903" s="132"/>
+      <c r="BL903" s="129"/>
     </row>
     <row r="904" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL904" s="132"/>
+      <c r="BL904" s="129"/>
     </row>
     <row r="905" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL905" s="132"/>
+      <c r="BL905" s="129"/>
     </row>
     <row r="906" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL906" s="132"/>
+      <c r="BL906" s="129"/>
     </row>
     <row r="907" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL907" s="132"/>
+      <c r="BL907" s="129"/>
     </row>
     <row r="908" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL908" s="132"/>
+      <c r="BL908" s="129"/>
     </row>
     <row r="909" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL909" s="132"/>
+      <c r="BL909" s="129"/>
     </row>
     <row r="910" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL910" s="132"/>
+      <c r="BL910" s="129"/>
     </row>
     <row r="911" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL911" s="132"/>
+      <c r="BL911" s="129"/>
     </row>
     <row r="912" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL912" s="132"/>
+      <c r="BL912" s="129"/>
     </row>
     <row r="913" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL913" s="132"/>
+      <c r="BL913" s="129"/>
     </row>
     <row r="914" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL914" s="132"/>
+      <c r="BL914" s="129"/>
     </row>
     <row r="915" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL915" s="132"/>
+      <c r="BL915" s="129"/>
     </row>
     <row r="916" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL916" s="132"/>
+      <c r="BL916" s="129"/>
     </row>
     <row r="917" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL917" s="132"/>
+      <c r="BL917" s="129"/>
     </row>
     <row r="918" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL918" s="132"/>
+      <c r="BL918" s="129"/>
     </row>
     <row r="919" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL919" s="132"/>
+      <c r="BL919" s="129"/>
     </row>
     <row r="920" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL920" s="132"/>
+      <c r="BL920" s="129"/>
     </row>
     <row r="921" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL921" s="132"/>
+      <c r="BL921" s="129"/>
     </row>
     <row r="922" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL922" s="132"/>
+      <c r="BL922" s="129"/>
     </row>
     <row r="923" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL923" s="132"/>
+      <c r="BL923" s="129"/>
     </row>
     <row r="924" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL924" s="132"/>
+      <c r="BL924" s="129"/>
     </row>
     <row r="925" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL925" s="132"/>
+      <c r="BL925" s="129"/>
     </row>
     <row r="926" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL926" s="132"/>
+      <c r="BL926" s="129"/>
     </row>
     <row r="927" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL927" s="132"/>
+      <c r="BL927" s="129"/>
     </row>
     <row r="928" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL928" s="132"/>
+      <c r="BL928" s="129"/>
     </row>
     <row r="929" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL929" s="132"/>
+      <c r="BL929" s="129"/>
     </row>
     <row r="930" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL930" s="132"/>
+      <c r="BL930" s="129"/>
     </row>
     <row r="931" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL931" s="132"/>
+      <c r="BL931" s="129"/>
     </row>
     <row r="932" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL932" s="132"/>
+      <c r="BL932" s="129"/>
     </row>
     <row r="933" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL933" s="132"/>
+      <c r="BL933" s="129"/>
     </row>
     <row r="934" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL934" s="132"/>
+      <c r="BL934" s="129"/>
     </row>
     <row r="935" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL935" s="132"/>
+      <c r="BL935" s="129"/>
     </row>
     <row r="936" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL936" s="132"/>
+      <c r="BL936" s="129"/>
     </row>
     <row r="937" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL937" s="132"/>
+      <c r="BL937" s="129"/>
     </row>
     <row r="938" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL938" s="132"/>
+      <c r="BL938" s="129"/>
     </row>
     <row r="939" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL939" s="132"/>
+      <c r="BL939" s="129"/>
     </row>
     <row r="940" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL940" s="132"/>
+      <c r="BL940" s="129"/>
     </row>
     <row r="941" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL941" s="132"/>
+      <c r="BL941" s="129"/>
     </row>
     <row r="942" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL942" s="132"/>
+      <c r="BL942" s="129"/>
     </row>
     <row r="943" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL943" s="132"/>
+      <c r="BL943" s="129"/>
     </row>
     <row r="944" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL944" s="132"/>
+      <c r="BL944" s="129"/>
     </row>
     <row r="945" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL945" s="132"/>
+      <c r="BL945" s="129"/>
     </row>
     <row r="946" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL946" s="132"/>
+      <c r="BL946" s="129"/>
     </row>
     <row r="947" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL947" s="132"/>
+      <c r="BL947" s="129"/>
     </row>
     <row r="948" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL948" s="132"/>
+      <c r="BL948" s="129"/>
     </row>
     <row r="949" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL949" s="132"/>
+      <c r="BL949" s="129"/>
     </row>
     <row r="950" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL950" s="132"/>
+      <c r="BL950" s="129"/>
     </row>
     <row r="951" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL951" s="132"/>
+      <c r="BL951" s="129"/>
     </row>
     <row r="952" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL952" s="132"/>
+      <c r="BL952" s="129"/>
     </row>
     <row r="953" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL953" s="132"/>
+      <c r="BL953" s="129"/>
     </row>
     <row r="954" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL954" s="132"/>
+      <c r="BL954" s="129"/>
     </row>
     <row r="955" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL955" s="132"/>
+      <c r="BL955" s="129"/>
     </row>
     <row r="956" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL956" s="132"/>
+      <c r="BL956" s="129"/>
     </row>
     <row r="957" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL957" s="132"/>
+      <c r="BL957" s="129"/>
     </row>
     <row r="958" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL958" s="132"/>
+      <c r="BL958" s="129"/>
     </row>
     <row r="959" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL959" s="132"/>
+      <c r="BL959" s="129"/>
     </row>
     <row r="960" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL960" s="132"/>
+      <c r="BL960" s="129"/>
     </row>
     <row r="961" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL961" s="132"/>
+      <c r="BL961" s="129"/>
     </row>
     <row r="962" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL962" s="132"/>
+      <c r="BL962" s="129"/>
     </row>
     <row r="963" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL963" s="132"/>
+      <c r="BL963" s="129"/>
     </row>
     <row r="964" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL964" s="132"/>
+      <c r="BL964" s="129"/>
     </row>
     <row r="965" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL965" s="132"/>
+      <c r="BL965" s="129"/>
     </row>
     <row r="966" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL966" s="132"/>
+      <c r="BL966" s="129"/>
     </row>
     <row r="967" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL967" s="132"/>
+      <c r="BL967" s="129"/>
     </row>
     <row r="968" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL968" s="132"/>
+      <c r="BL968" s="129"/>
     </row>
     <row r="969" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL969" s="132"/>
+      <c r="BL969" s="129"/>
     </row>
     <row r="970" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL970" s="132"/>
+      <c r="BL970" s="129"/>
     </row>
     <row r="971" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL971" s="132"/>
+      <c r="BL971" s="129"/>
     </row>
     <row r="972" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL972" s="132"/>
+      <c r="BL972" s="129"/>
     </row>
     <row r="973" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL973" s="132"/>
+      <c r="BL973" s="129"/>
     </row>
     <row r="974" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL974" s="132"/>
+      <c r="BL974" s="129"/>
     </row>
     <row r="975" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL975" s="132"/>
+      <c r="BL975" s="129"/>
     </row>
     <row r="976" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL976" s="132"/>
+      <c r="BL976" s="129"/>
     </row>
     <row r="977" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL977" s="132"/>
+      <c r="BL977" s="129"/>
     </row>
     <row r="978" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL978" s="132"/>
+      <c r="BL978" s="129"/>
     </row>
     <row r="979" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL979" s="132"/>
+      <c r="BL979" s="129"/>
     </row>
     <row r="980" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL980" s="132"/>
+      <c r="BL980" s="129"/>
     </row>
     <row r="981" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL981" s="132"/>
+      <c r="BL981" s="129"/>
     </row>
     <row r="982" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL982" s="132"/>
+      <c r="BL982" s="129"/>
     </row>
     <row r="983" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL983" s="132"/>
+      <c r="BL983" s="129"/>
     </row>
     <row r="984" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL984" s="132"/>
+      <c r="BL984" s="129"/>
     </row>
     <row r="985" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL985" s="132"/>
+      <c r="BL985" s="129"/>
     </row>
     <row r="986" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL986" s="132"/>
+      <c r="BL986" s="129"/>
     </row>
     <row r="987" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL987" s="132"/>
+      <c r="BL987" s="129"/>
     </row>
     <row r="988" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL988" s="132"/>
+      <c r="BL988" s="129"/>
     </row>
     <row r="989" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL989" s="132"/>
+      <c r="BL989" s="129"/>
     </row>
     <row r="990" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL990" s="132"/>
+      <c r="BL990" s="129"/>
     </row>
     <row r="991" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL991" s="132"/>
+      <c r="BL991" s="129"/>
     </row>
     <row r="992" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL992" s="132"/>
+      <c r="BL992" s="129"/>
     </row>
     <row r="993" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL993" s="132"/>
+      <c r="BL993" s="129"/>
     </row>
     <row r="994" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL994" s="132"/>
+      <c r="BL994" s="129"/>
     </row>
     <row r="995" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL995" s="132"/>
+      <c r="BL995" s="129"/>
     </row>
     <row r="996" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL996" s="132"/>
+      <c r="BL996" s="129"/>
     </row>
     <row r="997" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL997" s="132"/>
+      <c r="BL997" s="129"/>
     </row>
     <row r="998" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL998" s="132"/>
+      <c r="BL998" s="129"/>
     </row>
     <row r="999" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL999" s="132"/>
+      <c r="BL999" s="129"/>
     </row>
     <row r="1000" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1000" s="132"/>
+      <c r="BL1000" s="129"/>
     </row>
     <row r="1001" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1001" s="132"/>
+      <c r="BL1001" s="129"/>
     </row>
     <row r="1002" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1002" s="132"/>
+      <c r="BL1002" s="129"/>
     </row>
     <row r="1003" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1003" s="132"/>
+      <c r="BL1003" s="129"/>
     </row>
     <row r="1004" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1004" s="132"/>
+      <c r="BL1004" s="129"/>
     </row>
     <row r="1005" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1005" s="132"/>
+      <c r="BL1005" s="129"/>
     </row>
     <row r="1006" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1006" s="132"/>
+      <c r="BL1006" s="129"/>
     </row>
     <row r="1007" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1007" s="132"/>
+      <c r="BL1007" s="129"/>
     </row>
     <row r="1008" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1008" s="132"/>
+      <c r="BL1008" s="129"/>
     </row>
     <row r="1009" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1009" s="132"/>
+      <c r="BL1009" s="129"/>
     </row>
     <row r="1010" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1010" s="132"/>
+      <c r="BL1010" s="129"/>
     </row>
     <row r="1011" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1011" s="132"/>
+      <c r="BL1011" s="129"/>
     </row>
     <row r="1012" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1012" s="132"/>
+      <c r="BL1012" s="129"/>
     </row>
     <row r="1013" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1013" s="132"/>
+      <c r="BL1013" s="129"/>
     </row>
     <row r="1014" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1014" s="132"/>
+      <c r="BL1014" s="129"/>
     </row>
     <row r="1015" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1015" s="132"/>
+      <c r="BL1015" s="129"/>
     </row>
     <row r="1016" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1016" s="132"/>
+      <c r="BL1016" s="129"/>
     </row>
     <row r="1017" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1017" s="132"/>
+      <c r="BL1017" s="129"/>
     </row>
     <row r="1018" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1018" s="132"/>
+      <c r="BL1018" s="129"/>
     </row>
     <row r="1019" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1019" s="132"/>
+      <c r="BL1019" s="129"/>
     </row>
     <row r="1020" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1020" s="132"/>
+      <c r="BL1020" s="129"/>
     </row>
     <row r="1021" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1021" s="132"/>
+      <c r="BL1021" s="129"/>
     </row>
     <row r="1022" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1022" s="132"/>
+      <c r="BL1022" s="129"/>
     </row>
     <row r="1023" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1023" s="132"/>
+      <c r="BL1023" s="129"/>
     </row>
     <row r="1024" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1024" s="132"/>
+      <c r="BL1024" s="129"/>
     </row>
     <row r="1025" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1025" s="132"/>
+      <c r="BL1025" s="129"/>
     </row>
     <row r="1026" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1026" s="132"/>
+      <c r="BL1026" s="129"/>
     </row>
     <row r="1027" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1027" s="132"/>
+      <c r="BL1027" s="129"/>
     </row>
     <row r="1028" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1028" s="132"/>
+      <c r="BL1028" s="129"/>
     </row>
     <row r="1029" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1029" s="132"/>
+      <c r="BL1029" s="129"/>
     </row>
     <row r="1030" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1030" s="132"/>
-    </row>
-    <row r="1031" spans="64:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="BL1031" s="132"/>
+      <c r="BL1030" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -35268,21 +35256,21 @@
     <mergeCell ref="BV4:CB4"/>
     <mergeCell ref="CC4:CI4"/>
     <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="B24:C24"/>
@@ -35294,17 +35282,17 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:DD74">
+  <conditionalFormatting sqref="K8:DD73">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:DD74">
+  <conditionalFormatting sqref="K8:DD73">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:DD74">
+  <conditionalFormatting sqref="K6:DD73">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>K$6=TODAY()</formula>
     </cfRule>
